--- a/data/Integration_Policies_Data.xlsx
+++ b/data/Integration_Policies_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pechave\Box\Immigration CCI New\Immigration State Policy Resource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\AppData\Local\Box\Box Edit\Documents\P5ghlVm2t0WeOOhH3E97Kw==\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DE30F5-DE86-4774-A78D-72F96A206087}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418B38B0-9443-41A8-89BE-5BF137FD5D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="788" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="37710" windowHeight="21840" tabRatio="788" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tuition and aid policies" sheetId="16" r:id="rId1"/>
@@ -26,9 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -728,27 +726,6 @@
         <rFont val="Lato"/>
         <family val="2"/>
       </rPr>
-      <t>Original data source:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Lato"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> "Official English Map," ProEnglish, accessed April 28, 2017, https://proenglish.org/official-english-map-2/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Lato"/>
-        <family val="2"/>
-      </rPr>
       <t>Year e</t>
     </r>
     <r>
@@ -954,57 +931,6 @@
         <rFont val="Lato"/>
         <family val="2"/>
       </rPr>
-      <t>Maryland: U</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Lato"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ndocumented immigrant students qualify for in-state tuition rates at community colleges; and can possibly transfer to a public senior higher education institutions if they earn an Associates degree or 60 credits.  </t>
-    </r>
-  </si>
-  <si>
-    <t>Maryland Senate Bill 167, Chapter 191, An Act Concerning Public Institutions of Higher Education – Tuition Rates – Exemptions. Last accessed September 2021 via http://mlis.state.md.us/2011rs/chapters_noln/Ch_191_sb0167E.pdf .</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Lato"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Michigan: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Lato"/>
-        <family val="2"/>
-      </rPr>
-      <t>In 2013, the University of Michigan's Board of Regents adopted policies for undocumented students to access in-state tuition at those institutions. Elsewhere in Michigan,  colleges &amp; universities vary on whether they grant in-state tuition to undocumented students.</t>
-    </r>
-  </si>
-  <si>
-    <t>National Confrence of State Legislatures, "Undocumented Student Tuition: Overview", updated June 9th, 2021. Accessed September 2021 via https://www.ncsl.org/research/education/undocumented-student-tuition-overview.aspx# .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One Michigan, "An Undocumented Student Guide To College In Michigan", June 2019. Last accessed September 2021 via https://www.michigan.gov/documents/hlcomsp/Undocumented_Student_Guide_to_College_in_Michigan_2019_FINAL_659274_7.pdf . </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Lato"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Oklahoma: </t>
     </r>
     <r>
@@ -1016,9 +942,6 @@
       </rPr>
       <t>The granting of in-state tuition rates to undocumented students is up to the Oklahoma Board of Regents. The Board of Regents currently still allows undocumented students who meet Oklahoma's original statutory requirements to receive in-state tuition.</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> Virginia's Legislative Information System, 2020 Session, SB 935 Higher educational institutions, public; eligibility for in-state tuition. Last accessed September 2021 via https://lis.virginia.gov/cgi-bin/legp604.exe?ses=201&amp;typ=bil&amp;val=sb935.</t>
   </si>
   <si>
     <r>
@@ -1042,52 +965,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Lato"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Virginia: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Lato"/>
-        <family val="2"/>
-      </rPr>
-      <t>Effective July 2020, the state of Virginia began granting in-state tuition to undocumented students. Virginia's attorney general issued a letter in 2014 noting that students with Deferred Action for Childhood Arrivals (DACA) were eligible for in-state tuition in Virginia.</t>
-    </r>
-  </si>
-  <si>
     <t>Virginia's Legislative Information System, 2020 Session, HB 1547 Higher educational institutions, public; eligibility for in-state tuition. Last accessed September 2021 via https://lis.virginia.gov/cgi-bin/legp604.exe?ses=201&amp;typ=bil&amp;val=hb1547.</t>
-  </si>
-  <si>
-    <t>State of New Jersey, Press Release, "Governor Murphy Signs Legislation Expanding Access to Driver’s Licenses" (December 19th, 2019), Last accessed September 2021 via https://www.nj.gov/governor/news/news/562019/20191219a.shtml.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Lato"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">New Jersey: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Lato"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Governor signed signed into bill A4743 into law on December 19, 2019, effective January 1, 2021.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1111,52 +989,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Lato"/>
-        <family val="2"/>
-      </rPr>
-      <t>Utah:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Lato"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> SB227 was signed March 8, 2005,  was ammended by c. 348, § 1 on March 30, 2015 , then c.29 on March 17, 2016 and most recently by SB 34.  Effective dates were March 8, 2005; March 30, 2015; March 17, 2016; and March 16, 2021.</t>
-    </r>
-  </si>
-  <si>
-    <t>National Immigration Law Center, "State Laws Providing Access to Driver’s Licenses or Cards, Regardless of Immigration Status" (April 2020 report). https://www.nilc.org/</t>
-  </si>
-  <si>
     <t>National Conference of State Legislatures. "States Offering Driver's Licenses to Immigrants." https://www.ncsl.org/research/immigration/states-offering-driver-s-licenses-to-immigrants.aspx.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Lato"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Georgia: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Lato"/>
-        <family val="2"/>
-      </rPr>
-      <t>State Board of Regents passed rules regulating the admission of undocumented students in 2010, stating that any institution that has not admitted all academically qualified applicants in the two most recent years is not allowed to enroll undocumented students. This affected the most-competitive public universities in the state.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1222,10 +1055,175 @@
     </r>
   </si>
   <si>
-    <t>Data were not updated for 2017 to 202.</t>
+    <t>Data were not updated for 2020.</t>
   </si>
   <si>
-    <t>Data were not updated for 2020.</t>
+    <t>Maryland Senate Bill 167, Chapter 191, An Act Concerning Public Institutions of Higher Education – Tuition Rates – Exemptions.  http://mlis.state.md.us/2011rs/chapters_noln/Ch_191_sb0167E.pdf .</t>
+  </si>
+  <si>
+    <t>National Confrence of State Legislatures, "Undocumented Student Tuition: Overview", updated June 9th, 2021, https://www.ncsl.org/research/education/undocumented-student-tuition-overview.aspx# .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One Michigan, "An Undocumented Student Guide To College In Michigan", June 2019. Last accessed September 2021 via https://www.michigan.gov/documents/hlcomsp/Undocumented_Student_Guide_to_College_in_Michigan_2019_FINAL_659274_7.pdf. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Virginia's Legislative Information System, 2020 Session, SB 935, Higher educational institutions, public; eligibility for in-state tuition. https://lis.virginia.gov/cgi-bin/legp604.exe?ses=201&amp;typ=bil&amp;val=sb935.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Maryland: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Undocumented immigrant students qualify for in-state tuition rates at community colleges and can possibly transfer to public senior higher education institutions if they earn an associates degree or 60 credits.  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Michigan: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>In 2013, the University of Michigan's Board of Regents adopted policies for undocumented students to access in-state tuition at those institutions. Elsewhere in Michigan, colleges &amp; universities vary on whether they grant in-state tuition to undocumented students.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Virginia: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>Effective July 2020, the state of Virginia began granting in-state tuition to undocumented students. Virginia's attorney general issued a letter in 2014 noting that students with Deferred Action for Childhood Arrivals were eligible for in-state tuition in Virginia.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Georgia: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>State Board of Regents passed rules regulating the admission of undocumented students in 2010, stating that any institution that has not admitted all academically qualified applicants in the two most recent years is not allowed to enroll undocumented students. This affected the most competitive public universities in the state.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>Original data source:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "Official English Map," ProEnglish, accessed April 28, 2017, https://proenglish.org/official-english-map-2/.</t>
+    </r>
+  </si>
+  <si>
+    <t>Data were not updated for 2017 to 2020.</t>
+  </si>
+  <si>
+    <t>National Immigration Law Center, "State Laws Providing Access to Driver’s Licenses or Cards, Regardless of Immigration Status," last updated December 2021 https://www.nilc.org/issues/drivers-licenses/state-laws-providing-dl-access/.</t>
+  </si>
+  <si>
+    <t>State of New Jersey, "Governor Murphy Signs Legislation Expanding Access to Driver’s Licenses," press release, December 19th, 2019 https://www.nj.gov/governor/news/news/562019/20191219a.shtml.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">New Jersey: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>Governor signed signed into bill A4743 into law on December 19, 2019, effective January 1, 2021.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>Utah:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> SB227 was signed March 8, 2005,  was ammended by c. 348, § 1 on March 30, 2015 and then by c.29 on March 17, 2016 and most recently by SB 34.  Effective dates were March 8, 2005; March 30, 2015; March 17, 2016; and March 16, 2021.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1884,23 +1882,35 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1917,17 +1927,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1937,9 +1938,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2777,49 +2775,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ62"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AH1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E68" sqref="E68"/>
+    <sheetView topLeftCell="A42" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="20.6328125" style="26" customWidth="1"/>
-    <col min="2" max="2" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.08984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.36328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.81640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.6328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.6328125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.81640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.6328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.625" style="1" customWidth="1"/>
     <col min="12" max="12" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.375" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="47.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="47.5" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.875" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="29.08984375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="29.125" style="1" customWidth="1"/>
     <col min="22" max="22" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.36328125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="37.08984375" style="1" customWidth="1"/>
-    <col min="26" max="26" width="11.81640625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="74.6328125" style="1" customWidth="1"/>
-    <col min="28" max="28" width="11.81640625" style="1" customWidth="1"/>
-    <col min="29" max="29" width="36.6328125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="17.453125" style="1" customWidth="1"/>
-    <col min="31" max="31" width="89.08984375" style="1" customWidth="1"/>
-    <col min="32" max="32" width="11.81640625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="5.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="37.125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="11.875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="74.625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="11.875" style="1" customWidth="1"/>
+    <col min="29" max="29" width="36.625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="17.5" style="1" customWidth="1"/>
+    <col min="31" max="31" width="89.125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="11.875" style="1" customWidth="1"/>
     <col min="33" max="41" width="51" style="1" customWidth="1"/>
-    <col min="42" max="42" width="8.81640625" style="1"/>
-    <col min="43" max="43" width="16.81640625" style="1" customWidth="1"/>
-    <col min="44" max="16384" width="8.81640625" style="1"/>
+    <col min="42" max="42" width="8.875" style="1"/>
+    <col min="43" max="43" width="16.875" style="1" customWidth="1"/>
+    <col min="44" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" s="12" customFormat="1">
@@ -2829,90 +2827,90 @@
     </row>
     <row r="2" spans="1:43" s="44" customFormat="1">
       <c r="A2" s="43"/>
-      <c r="B2" s="115">
+      <c r="B2" s="117">
         <v>2000</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115">
+      <c r="C2" s="117"/>
+      <c r="D2" s="117">
         <v>2001</v>
       </c>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115">
+      <c r="E2" s="117"/>
+      <c r="F2" s="117">
         <v>2002</v>
       </c>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115">
+      <c r="G2" s="117"/>
+      <c r="H2" s="117">
         <v>2003</v>
       </c>
-      <c r="I2" s="115"/>
-      <c r="J2" s="117">
+      <c r="I2" s="117"/>
+      <c r="J2" s="118">
         <v>2004</v>
       </c>
-      <c r="K2" s="118"/>
-      <c r="L2" s="115">
+      <c r="K2" s="119"/>
+      <c r="L2" s="117">
         <v>2005</v>
       </c>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115">
+      <c r="M2" s="117"/>
+      <c r="N2" s="117">
         <v>2006</v>
       </c>
-      <c r="O2" s="115"/>
-      <c r="P2" s="115">
+      <c r="O2" s="117"/>
+      <c r="P2" s="117">
         <v>2007</v>
       </c>
-      <c r="Q2" s="115"/>
-      <c r="R2" s="117">
+      <c r="Q2" s="117"/>
+      <c r="R2" s="118">
         <v>2008</v>
       </c>
-      <c r="S2" s="118"/>
-      <c r="T2" s="117">
+      <c r="S2" s="119"/>
+      <c r="T2" s="118">
         <v>2009</v>
       </c>
-      <c r="U2" s="118"/>
-      <c r="V2" s="117">
+      <c r="U2" s="119"/>
+      <c r="V2" s="118">
         <v>2010</v>
       </c>
-      <c r="W2" s="118"/>
-      <c r="X2" s="117">
+      <c r="W2" s="119"/>
+      <c r="X2" s="118">
         <v>2011</v>
       </c>
-      <c r="Y2" s="118"/>
-      <c r="Z2" s="115">
+      <c r="Y2" s="119"/>
+      <c r="Z2" s="117">
         <v>2012</v>
       </c>
-      <c r="AA2" s="115"/>
-      <c r="AB2" s="115">
+      <c r="AA2" s="117"/>
+      <c r="AB2" s="117">
         <v>2013</v>
       </c>
-      <c r="AC2" s="115"/>
-      <c r="AD2" s="115">
+      <c r="AC2" s="117"/>
+      <c r="AD2" s="117">
         <v>2014</v>
       </c>
-      <c r="AE2" s="115"/>
-      <c r="AF2" s="115">
+      <c r="AE2" s="117"/>
+      <c r="AF2" s="117">
         <v>2015</v>
       </c>
-      <c r="AG2" s="115"/>
-      <c r="AH2" s="115">
+      <c r="AG2" s="117"/>
+      <c r="AH2" s="117">
         <v>2016</v>
       </c>
-      <c r="AI2" s="115"/>
-      <c r="AJ2" s="115">
+      <c r="AI2" s="117"/>
+      <c r="AJ2" s="117">
         <v>2017</v>
       </c>
-      <c r="AK2" s="115"/>
-      <c r="AL2" s="115">
+      <c r="AK2" s="117"/>
+      <c r="AL2" s="117">
         <v>2018</v>
       </c>
-      <c r="AM2" s="115"/>
-      <c r="AN2" s="115">
+      <c r="AM2" s="117"/>
+      <c r="AN2" s="117">
         <v>2019</v>
       </c>
-      <c r="AO2" s="115"/>
-      <c r="AP2" s="115">
+      <c r="AO2" s="117"/>
+      <c r="AP2" s="117">
         <v>2020</v>
       </c>
-      <c r="AQ2" s="115"/>
+      <c r="AQ2" s="117"/>
     </row>
     <row r="3" spans="1:43" s="44" customFormat="1">
       <c r="A3" s="43"/>
@@ -3231,16 +3229,16 @@
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2"/>
     </row>
-    <row r="8" spans="1:43" ht="112.5">
-      <c r="A8" s="124" t="s">
+    <row r="8" spans="1:43" ht="114.75">
+      <c r="A8" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="126"/>
+      <c r="B8" s="115"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="122" t="s">
+      <c r="D8" s="126" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="120" t="s">
+      <c r="E8" s="124" t="s">
         <v>108</v>
       </c>
       <c r="F8" s="2"/>
@@ -3267,10 +3265,10 @@
       <c r="Y8" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="Z8" s="122" t="s">
+      <c r="Z8" s="126" t="s">
         <v>65</v>
       </c>
-      <c r="AA8" s="120" t="s">
+      <c r="AA8" s="124" t="s">
         <v>105</v>
       </c>
       <c r="AB8" s="2"/>
@@ -3295,11 +3293,11 @@
       <c r="AQ8" s="2"/>
     </row>
     <row r="9" spans="1:43" ht="409.5">
-      <c r="A9" s="125"/>
-      <c r="B9" s="127"/>
+      <c r="A9" s="114"/>
+      <c r="B9" s="116"/>
       <c r="C9" s="15"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="121"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="125"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -3324,8 +3322,8 @@
       <c r="Y9" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="Z9" s="123"/>
-      <c r="AA9" s="121"/>
+      <c r="Z9" s="127"/>
+      <c r="AA9" s="125"/>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
       <c r="AD9" s="5" t="s">
@@ -3339,23 +3337,23 @@
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
       <c r="AJ9" s="95" t="s">
+        <v>176</v>
+      </c>
+      <c r="AK9" s="96" t="s">
         <v>177</v>
-      </c>
-      <c r="AK9" s="96" t="s">
-        <v>178</v>
       </c>
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" s="95" t="s">
+        <v>178</v>
+      </c>
+      <c r="AO9" s="97" t="s">
         <v>179</v>
-      </c>
-      <c r="AO9" s="97" t="s">
-        <v>180</v>
       </c>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2"/>
     </row>
-    <row r="10" spans="1:43" ht="175">
+    <row r="10" spans="1:43" ht="165.75">
       <c r="A10" s="16" t="s">
         <v>5</v>
       </c>
@@ -3402,15 +3400,15 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" s="95" t="s">
+        <v>180</v>
+      </c>
+      <c r="AO10" s="96" t="s">
         <v>181</v>
-      </c>
-      <c r="AO10" s="96" t="s">
-        <v>182</v>
       </c>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2"/>
     </row>
-    <row r="11" spans="1:43" ht="31">
+    <row r="11" spans="1:43" ht="30">
       <c r="A11" s="16" t="s">
         <v>6</v>
       </c>
@@ -3459,10 +3457,10 @@
       <c r="AJ11" s="2"/>
       <c r="AK11" s="2"/>
       <c r="AL11" s="95" t="s">
+        <v>182</v>
+      </c>
+      <c r="AM11" s="98" t="s">
         <v>183</v>
-      </c>
-      <c r="AM11" s="98" t="s">
-        <v>184</v>
       </c>
       <c r="AN11" s="2"/>
       <c r="AO11" s="2"/>
@@ -3516,7 +3514,7 @@
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2"/>
     </row>
-    <row r="13" spans="1:43" ht="165">
+    <row r="13" spans="1:43" ht="148.5">
       <c r="A13" s="16" t="s">
         <v>50</v>
       </c>
@@ -3555,10 +3553,10 @@
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
       <c r="AJ13" s="99" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK13" s="100" t="s">
         <v>185</v>
-      </c>
-      <c r="AK13" s="100" t="s">
-        <v>186</v>
       </c>
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
@@ -3567,7 +3565,7 @@
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2"/>
     </row>
-    <row r="14" spans="1:43" ht="25">
+    <row r="14" spans="1:43" ht="25.5">
       <c r="A14" s="16" t="s">
         <v>8</v>
       </c>
@@ -3665,7 +3663,7 @@
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2"/>
     </row>
-    <row r="16" spans="1:43" ht="50">
+    <row r="16" spans="1:43" ht="38.25">
       <c r="A16" s="16" t="s">
         <v>10</v>
       </c>
@@ -3763,7 +3761,7 @@
       <c r="AP17" s="2"/>
       <c r="AQ17" s="2"/>
     </row>
-    <row r="18" spans="1:43" ht="150">
+    <row r="18" spans="1:43" ht="140.25">
       <c r="A18" s="16" t="s">
         <v>12</v>
       </c>
@@ -3814,10 +3812,10 @@
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" s="99" t="s">
+        <v>186</v>
+      </c>
+      <c r="AO18" s="101" t="s">
         <v>187</v>
-      </c>
-      <c r="AO18" s="101" t="s">
-        <v>188</v>
       </c>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2"/>
@@ -3916,7 +3914,7 @@
       <c r="AP20" s="2"/>
       <c r="AQ20" s="2"/>
     </row>
-    <row r="21" spans="1:43" ht="75">
+    <row r="21" spans="1:43" ht="76.5">
       <c r="A21" s="16" t="s">
         <v>15</v>
       </c>
@@ -3967,7 +3965,7 @@
       <c r="AP21" s="2"/>
       <c r="AQ21" s="2"/>
     </row>
-    <row r="22" spans="1:43" ht="75">
+    <row r="22" spans="1:43" ht="76.5">
       <c r="A22" s="16" t="s">
         <v>16</v>
       </c>
@@ -4112,7 +4110,7 @@
       <c r="AP24" s="2"/>
       <c r="AQ24" s="2"/>
     </row>
-    <row r="25" spans="1:43" ht="62.5">
+    <row r="25" spans="1:43" ht="51">
       <c r="A25" s="16" t="s">
         <v>19</v>
       </c>
@@ -4157,10 +4155,10 @@
       <c r="AJ25" s="2"/>
       <c r="AK25" s="2"/>
       <c r="AL25" s="99" t="s">
+        <v>188</v>
+      </c>
+      <c r="AM25" s="102" t="s">
         <v>189</v>
-      </c>
-      <c r="AM25" s="102" t="s">
-        <v>190</v>
       </c>
       <c r="AN25" s="2"/>
       <c r="AO25" s="2"/>
@@ -4214,7 +4212,7 @@
       <c r="AP26" s="2"/>
       <c r="AQ26" s="2"/>
     </row>
-    <row r="27" spans="1:43" ht="37.5">
+    <row r="27" spans="1:43" ht="38.25">
       <c r="A27" s="16" t="s">
         <v>48</v>
       </c>
@@ -4265,7 +4263,7 @@
       <c r="AP27" s="2"/>
       <c r="AQ27" s="2"/>
     </row>
-    <row r="28" spans="1:43" ht="37.5">
+    <row r="28" spans="1:43" ht="38.25">
       <c r="A28" s="16" t="s">
         <v>21</v>
       </c>
@@ -4457,7 +4455,7 @@
       <c r="AP31" s="2"/>
       <c r="AQ31" s="2"/>
     </row>
-    <row r="32" spans="1:43" ht="62.5">
+    <row r="32" spans="1:43" ht="51">
       <c r="A32" s="16" t="s">
         <v>25</v>
       </c>
@@ -4602,7 +4600,7 @@
       <c r="AP34" s="2"/>
       <c r="AQ34" s="2"/>
     </row>
-    <row r="35" spans="1:43" ht="50">
+    <row r="35" spans="1:43" ht="51">
       <c r="A35" s="16" t="s">
         <v>28</v>
       </c>
@@ -4647,17 +4645,17 @@
       <c r="AJ35" s="2"/>
       <c r="AK35" s="2"/>
       <c r="AL35" s="99" t="s">
+        <v>190</v>
+      </c>
+      <c r="AM35" s="102" t="s">
         <v>191</v>
-      </c>
-      <c r="AM35" s="102" t="s">
-        <v>192</v>
       </c>
       <c r="AN35" s="2"/>
       <c r="AO35" s="2"/>
       <c r="AP35" s="2"/>
       <c r="AQ35" s="2"/>
     </row>
-    <row r="36" spans="1:43" ht="62.5">
+    <row r="36" spans="1:43" ht="63.75">
       <c r="A36" s="16" t="s">
         <v>29</v>
       </c>
@@ -4708,8 +4706,8 @@
       <c r="AP36" s="2"/>
       <c r="AQ36" s="2"/>
     </row>
-    <row r="37" spans="1:43" ht="65.5" customHeight="1">
-      <c r="A37" s="124" t="s">
+    <row r="37" spans="1:43" ht="65.45" customHeight="1">
+      <c r="A37" s="113" t="s">
         <v>30</v>
       </c>
       <c r="B37" s="2"/>
@@ -4751,16 +4749,16 @@
       <c r="AL37" s="2"/>
       <c r="AM37" s="2"/>
       <c r="AN37" s="99" t="s">
+        <v>192</v>
+      </c>
+      <c r="AO37" s="107" t="s">
         <v>193</v>
-      </c>
-      <c r="AO37" s="107" t="s">
-        <v>194</v>
       </c>
       <c r="AP37" s="2"/>
       <c r="AQ37" s="2"/>
     </row>
-    <row r="38" spans="1:43" ht="75">
-      <c r="A38" s="125"/>
+    <row r="38" spans="1:43" ht="76.5">
+      <c r="A38" s="114"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -4804,10 +4802,10 @@
       <c r="AL38" s="2"/>
       <c r="AM38" s="2"/>
       <c r="AN38" s="99" t="s">
+        <v>194</v>
+      </c>
+      <c r="AO38" s="106" t="s">
         <v>195</v>
-      </c>
-      <c r="AO38" s="106" t="s">
-        <v>196</v>
       </c>
       <c r="AP38" s="2"/>
       <c r="AQ38" s="2"/>
@@ -4953,7 +4951,7 @@
       <c r="AP41" s="2"/>
       <c r="AQ41" s="2"/>
     </row>
-    <row r="42" spans="1:43" ht="100">
+    <row r="42" spans="1:43" ht="102">
       <c r="A42" s="16" t="s">
         <v>34</v>
       </c>
@@ -5008,7 +5006,7 @@
       <c r="AP42" s="2"/>
       <c r="AQ42" s="2"/>
     </row>
-    <row r="43" spans="1:43" ht="37.5">
+    <row r="43" spans="1:43" ht="38.25">
       <c r="A43" s="16" t="s">
         <v>35</v>
       </c>
@@ -5057,10 +5055,10 @@
       <c r="AJ43" s="2"/>
       <c r="AK43" s="2"/>
       <c r="AL43" s="103" t="s">
+        <v>196</v>
+      </c>
+      <c r="AM43" s="104" t="s">
         <v>197</v>
-      </c>
-      <c r="AM43" s="104" t="s">
-        <v>198</v>
       </c>
       <c r="AN43" s="2"/>
       <c r="AO43" s="2"/>
@@ -5114,7 +5112,7 @@
       <c r="AP44" s="2"/>
       <c r="AQ44" s="10"/>
     </row>
-    <row r="45" spans="1:43" ht="25">
+    <row r="45" spans="1:43" ht="25.5">
       <c r="A45" s="16" t="s">
         <v>37</v>
       </c>
@@ -5306,7 +5304,7 @@
       <c r="AP48" s="2"/>
       <c r="AQ48" s="2"/>
     </row>
-    <row r="49" spans="1:43" ht="50">
+    <row r="49" spans="1:43" ht="51">
       <c r="A49" s="16" t="s">
         <v>40</v>
       </c>
@@ -5361,7 +5359,7 @@
       <c r="AP49" s="2"/>
       <c r="AQ49" s="2"/>
     </row>
-    <row r="50" spans="1:43" ht="37.5">
+    <row r="50" spans="1:43" ht="38.25">
       <c r="A50" s="16" t="s">
         <v>41</v>
       </c>
@@ -5412,10 +5410,10 @@
       <c r="AL50" s="2"/>
       <c r="AM50" s="2"/>
       <c r="AN50" s="99" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO50" s="105" t="s">
         <v>199</v>
-      </c>
-      <c r="AO50" s="105" t="s">
-        <v>200</v>
       </c>
       <c r="AP50" s="2"/>
       <c r="AQ50" s="2"/>
@@ -5467,7 +5465,7 @@
       <c r="AP51" s="2"/>
       <c r="AQ51" s="2"/>
     </row>
-    <row r="52" spans="1:43" ht="25">
+    <row r="52" spans="1:43" ht="25.5">
       <c r="A52" s="16" t="s">
         <v>43</v>
       </c>
@@ -5518,7 +5516,7 @@
       <c r="AP52" s="2"/>
       <c r="AQ52" s="2"/>
     </row>
-    <row r="53" spans="1:43" ht="50">
+    <row r="53" spans="1:43" ht="51">
       <c r="A53" s="16" t="s">
         <v>44</v>
       </c>
@@ -5567,10 +5565,10 @@
       <c r="AJ53" s="2"/>
       <c r="AK53" s="2"/>
       <c r="AL53" s="99" t="s">
+        <v>200</v>
+      </c>
+      <c r="AM53" s="105" t="s">
         <v>201</v>
-      </c>
-      <c r="AM53" s="105" t="s">
-        <v>202</v>
       </c>
       <c r="AN53" s="2"/>
       <c r="AO53" s="2"/>
@@ -5624,7 +5622,7 @@
       <c r="AP54" s="2"/>
       <c r="AQ54" s="2"/>
     </row>
-    <row r="55" spans="1:43" ht="118" customHeight="1">
+    <row r="55" spans="1:43" ht="117.95" customHeight="1">
       <c r="A55" s="16" t="s">
         <v>46</v>
       </c>
@@ -5748,46 +5746,46 @@
       <c r="Q57" s="84"/>
     </row>
     <row r="58" spans="1:43" s="85" customFormat="1">
-      <c r="A58" s="116" t="s">
+      <c r="A58" s="122" t="s">
         <v>160</v>
       </c>
-      <c r="B58" s="116"/>
-      <c r="C58" s="116"/>
-      <c r="D58" s="116"/>
-      <c r="E58" s="116"/>
-      <c r="F58" s="116"/>
-      <c r="G58" s="116"/>
-      <c r="H58" s="116"/>
-      <c r="I58" s="116"/>
-      <c r="J58" s="116"/>
-      <c r="K58" s="116"/>
-      <c r="L58" s="116"/>
-      <c r="M58" s="116"/>
-      <c r="N58" s="116"/>
-      <c r="O58" s="116"/>
-      <c r="P58" s="116"/>
-      <c r="Q58" s="116"/>
-      <c r="R58" s="116"/>
+      <c r="B58" s="122"/>
+      <c r="C58" s="122"/>
+      <c r="D58" s="122"/>
+      <c r="E58" s="122"/>
+      <c r="F58" s="122"/>
+      <c r="G58" s="122"/>
+      <c r="H58" s="122"/>
+      <c r="I58" s="122"/>
+      <c r="J58" s="122"/>
+      <c r="K58" s="122"/>
+      <c r="L58" s="122"/>
+      <c r="M58" s="122"/>
+      <c r="N58" s="122"/>
+      <c r="O58" s="122"/>
+      <c r="P58" s="122"/>
+      <c r="Q58" s="122"/>
+      <c r="R58" s="122"/>
     </row>
     <row r="59" spans="1:43">
-      <c r="A59" s="119" t="s">
+      <c r="A59" s="123" t="s">
         <v>159</v>
       </c>
-      <c r="B59" s="119"/>
-      <c r="C59" s="119"/>
-      <c r="D59" s="119"/>
-      <c r="E59" s="119"/>
-      <c r="F59" s="119"/>
-      <c r="G59" s="119"/>
-      <c r="H59" s="119"/>
-      <c r="I59" s="119"/>
-      <c r="J59" s="119"/>
-      <c r="K59" s="119"/>
-      <c r="L59" s="119"/>
-      <c r="M59" s="119"/>
-      <c r="N59" s="119"/>
-      <c r="O59" s="119"/>
-      <c r="P59" s="119"/>
+      <c r="B59" s="123"/>
+      <c r="C59" s="123"/>
+      <c r="D59" s="123"/>
+      <c r="E59" s="123"/>
+      <c r="F59" s="123"/>
+      <c r="G59" s="123"/>
+      <c r="H59" s="123"/>
+      <c r="I59" s="123"/>
+      <c r="J59" s="123"/>
+      <c r="K59" s="123"/>
+      <c r="L59" s="123"/>
+      <c r="M59" s="123"/>
+      <c r="N59" s="123"/>
+      <c r="O59" s="123"/>
+      <c r="P59" s="123"/>
     </row>
     <row r="60" spans="1:43">
       <c r="A60" s="22" t="s">
@@ -5795,74 +5793,59 @@
       </c>
     </row>
     <row r="61" spans="1:43" s="36" customFormat="1">
-      <c r="A61" s="113" t="s">
+      <c r="A61" s="120" t="s">
         <v>150</v>
       </c>
-      <c r="B61" s="114"/>
-      <c r="C61" s="114"/>
-      <c r="D61" s="114"/>
-      <c r="E61" s="114"/>
-      <c r="F61" s="114"/>
-      <c r="G61" s="114"/>
-      <c r="H61" s="114"/>
-      <c r="I61" s="114"/>
-      <c r="J61" s="114"/>
-      <c r="K61" s="114"/>
-      <c r="L61" s="114"/>
-      <c r="M61" s="114"/>
-      <c r="N61" s="114"/>
-      <c r="O61" s="114"/>
-      <c r="P61" s="114"/>
-      <c r="Q61" s="114"/>
-      <c r="R61" s="114"/>
-      <c r="S61" s="114"/>
-      <c r="T61" s="114"/>
-      <c r="U61" s="114"/>
-      <c r="V61" s="114"/>
-      <c r="W61" s="114"/>
-      <c r="X61" s="114"/>
-      <c r="Y61" s="114"/>
-      <c r="Z61" s="114"/>
-      <c r="AA61" s="114"/>
-      <c r="AB61" s="114"/>
-      <c r="AC61" s="114"/>
-      <c r="AD61" s="114"/>
-      <c r="AE61" s="114"/>
-      <c r="AF61" s="114"/>
-      <c r="AG61" s="114"/>
-      <c r="AH61" s="114"/>
-      <c r="AI61" s="114"/>
-      <c r="AJ61" s="114"/>
-      <c r="AK61" s="114"/>
-      <c r="AL61" s="114"/>
-      <c r="AM61" s="114"/>
-      <c r="AN61" s="114"/>
-      <c r="AO61" s="114"/>
-      <c r="AP61" s="114"/>
-      <c r="AQ61" s="114"/>
+      <c r="B61" s="121"/>
+      <c r="C61" s="121"/>
+      <c r="D61" s="121"/>
+      <c r="E61" s="121"/>
+      <c r="F61" s="121"/>
+      <c r="G61" s="121"/>
+      <c r="H61" s="121"/>
+      <c r="I61" s="121"/>
+      <c r="J61" s="121"/>
+      <c r="K61" s="121"/>
+      <c r="L61" s="121"/>
+      <c r="M61" s="121"/>
+      <c r="N61" s="121"/>
+      <c r="O61" s="121"/>
+      <c r="P61" s="121"/>
+      <c r="Q61" s="121"/>
+      <c r="R61" s="121"/>
+      <c r="S61" s="121"/>
+      <c r="T61" s="121"/>
+      <c r="U61" s="121"/>
+      <c r="V61" s="121"/>
+      <c r="W61" s="121"/>
+      <c r="X61" s="121"/>
+      <c r="Y61" s="121"/>
+      <c r="Z61" s="121"/>
+      <c r="AA61" s="121"/>
+      <c r="AB61" s="121"/>
+      <c r="AC61" s="121"/>
+      <c r="AD61" s="121"/>
+      <c r="AE61" s="121"/>
+      <c r="AF61" s="121"/>
+      <c r="AG61" s="121"/>
+      <c r="AH61" s="121"/>
+      <c r="AI61" s="121"/>
+      <c r="AJ61" s="121"/>
+      <c r="AK61" s="121"/>
+      <c r="AL61" s="121"/>
+      <c r="AM61" s="121"/>
+      <c r="AN61" s="121"/>
+      <c r="AO61" s="121"/>
+      <c r="AP61" s="121"/>
+      <c r="AQ61" s="121"/>
     </row>
     <row r="62" spans="1:43">
       <c r="A62" s="26" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="J2:K2"/>
     <mergeCell ref="A61:AQ61"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="AD2:AE2"/>
@@ -5879,6 +5862,21 @@
     <mergeCell ref="Z8:Z9"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AG43" r:id="rId1" location="collapseMeasureSummary" display="https://olis.leg.state.or.us/liz/2015R1/Measures/Overview/SB932 - collapseMeasureSummary" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -5902,19 +5900,19 @@
   <dimension ref="A1:Y68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A61" sqref="A61:V61"/>
+      <selection pane="bottomRight" activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="18.375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="17.08984375" style="22" customWidth="1"/>
-    <col min="2" max="17" width="5.6328125" style="22" bestFit="1" customWidth="1"/>
-    <col min="18" max="22" width="5.6328125" style="22" customWidth="1"/>
-    <col min="23" max="23" width="3.81640625" style="22" customWidth="1"/>
-    <col min="24" max="16384" width="18.36328125" style="22"/>
+    <col min="1" max="1" width="17.125" style="22" customWidth="1"/>
+    <col min="2" max="17" width="5.625" style="22" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="5.625" style="22" customWidth="1"/>
+    <col min="23" max="23" width="3.875" style="22" customWidth="1"/>
+    <col min="24" max="16384" width="18.375" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -6002,11 +6000,11 @@
       <c r="V2" s="24">
         <v>2020</v>
       </c>
-      <c r="W2" s="128" t="s">
+      <c r="W2" s="129" t="s">
         <v>165</v>
       </c>
-      <c r="X2" s="129"/>
-      <c r="Y2" s="129"/>
+      <c r="X2" s="130"/>
+      <c r="Y2" s="130"/>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="19" t="s">
@@ -9516,377 +9514,372 @@
       <c r="W54" s="111"/>
       <c r="X54" s="111"/>
     </row>
-    <row r="55" spans="1:24" ht="69.650000000000006" customHeight="1">
-      <c r="A55" s="119" t="s">
+    <row r="55" spans="1:24" ht="69.599999999999994" customHeight="1">
+      <c r="A55" s="123" t="s">
         <v>160</v>
       </c>
-      <c r="B55" s="119"/>
-      <c r="C55" s="119"/>
-      <c r="D55" s="119"/>
-      <c r="E55" s="119"/>
-      <c r="F55" s="119"/>
-      <c r="G55" s="119"/>
-      <c r="H55" s="119"/>
-      <c r="I55" s="119"/>
-      <c r="J55" s="119"/>
-      <c r="K55" s="119"/>
-      <c r="L55" s="119"/>
-      <c r="M55" s="119"/>
-      <c r="N55" s="119"/>
-      <c r="O55" s="119"/>
-      <c r="P55" s="119"/>
-      <c r="Q55" s="119"/>
-      <c r="R55" s="119"/>
-      <c r="S55" s="119"/>
-      <c r="T55" s="119"/>
-      <c r="U55" s="119"/>
-      <c r="V55" s="119"/>
-    </row>
-    <row r="56" spans="1:24" ht="69.650000000000006" customHeight="1">
-      <c r="A56" s="130" t="s">
+      <c r="B55" s="123"/>
+      <c r="C55" s="123"/>
+      <c r="D55" s="123"/>
+      <c r="E55" s="123"/>
+      <c r="F55" s="123"/>
+      <c r="G55" s="123"/>
+      <c r="H55" s="123"/>
+      <c r="I55" s="123"/>
+      <c r="J55" s="123"/>
+      <c r="K55" s="123"/>
+      <c r="L55" s="123"/>
+      <c r="M55" s="123"/>
+      <c r="N55" s="123"/>
+      <c r="O55" s="123"/>
+      <c r="P55" s="123"/>
+      <c r="Q55" s="123"/>
+      <c r="R55" s="123"/>
+      <c r="S55" s="123"/>
+      <c r="T55" s="123"/>
+      <c r="U55" s="123"/>
+      <c r="V55" s="123"/>
+    </row>
+    <row r="56" spans="1:24" ht="69.599999999999994" customHeight="1">
+      <c r="A56" s="131" t="s">
+        <v>211</v>
+      </c>
+      <c r="B56" s="131"/>
+      <c r="C56" s="131"/>
+      <c r="D56" s="131"/>
+      <c r="E56" s="131"/>
+      <c r="F56" s="131"/>
+      <c r="G56" s="131"/>
+      <c r="H56" s="131"/>
+      <c r="I56" s="131"/>
+      <c r="J56" s="131"/>
+      <c r="K56" s="131"/>
+      <c r="L56" s="131"/>
+      <c r="M56" s="131"/>
+      <c r="N56" s="131"/>
+      <c r="O56" s="131"/>
+      <c r="P56" s="131"/>
+      <c r="Q56" s="131"/>
+      <c r="R56" s="131"/>
+      <c r="S56" s="131"/>
+      <c r="T56" s="131"/>
+      <c r="U56" s="131"/>
+      <c r="V56" s="131"/>
+    </row>
+    <row r="57" spans="1:24" ht="69.599999999999994" customHeight="1">
+      <c r="A57" s="131" t="s">
+        <v>212</v>
+      </c>
+      <c r="B57" s="131"/>
+      <c r="C57" s="131"/>
+      <c r="D57" s="131"/>
+      <c r="E57" s="131"/>
+      <c r="F57" s="131"/>
+      <c r="G57" s="131"/>
+      <c r="H57" s="131"/>
+      <c r="I57" s="131"/>
+      <c r="J57" s="131"/>
+      <c r="K57" s="131"/>
+      <c r="L57" s="131"/>
+      <c r="M57" s="131"/>
+      <c r="N57" s="131"/>
+      <c r="O57" s="131"/>
+      <c r="P57" s="131"/>
+      <c r="Q57" s="131"/>
+      <c r="R57" s="131"/>
+      <c r="S57" s="131"/>
+      <c r="T57" s="131"/>
+      <c r="U57" s="131"/>
+      <c r="V57" s="131"/>
+    </row>
+    <row r="58" spans="1:24" ht="69.599999999999994" customHeight="1">
+      <c r="A58" s="131" t="s">
+        <v>161</v>
+      </c>
+      <c r="B58" s="131"/>
+      <c r="C58" s="131"/>
+      <c r="D58" s="131"/>
+      <c r="E58" s="131"/>
+      <c r="F58" s="131"/>
+      <c r="G58" s="131"/>
+      <c r="H58" s="131"/>
+      <c r="I58" s="131"/>
+      <c r="J58" s="131"/>
+      <c r="K58" s="131"/>
+      <c r="L58" s="131"/>
+      <c r="M58" s="131"/>
+      <c r="N58" s="131"/>
+      <c r="O58" s="131"/>
+      <c r="P58" s="131"/>
+      <c r="Q58" s="131"/>
+      <c r="R58" s="131"/>
+      <c r="S58" s="131"/>
+      <c r="T58" s="131"/>
+      <c r="U58" s="131"/>
+      <c r="V58" s="131"/>
+    </row>
+    <row r="59" spans="1:24" ht="69.599999999999994" customHeight="1">
+      <c r="A59" s="131" t="s">
+        <v>213</v>
+      </c>
+      <c r="B59" s="131"/>
+      <c r="C59" s="131"/>
+      <c r="D59" s="131"/>
+      <c r="E59" s="131"/>
+      <c r="F59" s="131"/>
+      <c r="G59" s="131"/>
+      <c r="H59" s="131"/>
+      <c r="I59" s="131"/>
+      <c r="J59" s="131"/>
+      <c r="K59" s="131"/>
+      <c r="L59" s="131"/>
+      <c r="M59" s="131"/>
+      <c r="N59" s="131"/>
+      <c r="O59" s="131"/>
+      <c r="P59" s="131"/>
+      <c r="Q59" s="131"/>
+      <c r="R59" s="131"/>
+      <c r="S59" s="131"/>
+      <c r="T59" s="131"/>
+      <c r="U59" s="131"/>
+      <c r="V59" s="131"/>
+    </row>
+    <row r="60" spans="1:24" ht="69.599999999999994" customHeight="1">
+      <c r="A60" s="131" t="s">
         <v>204</v>
       </c>
-      <c r="B56" s="130"/>
-      <c r="C56" s="130"/>
-      <c r="D56" s="130"/>
-      <c r="E56" s="130"/>
-      <c r="F56" s="130"/>
-      <c r="G56" s="130"/>
-      <c r="H56" s="130"/>
-      <c r="I56" s="130"/>
-      <c r="J56" s="130"/>
-      <c r="K56" s="130"/>
-      <c r="L56" s="130"/>
-      <c r="M56" s="130"/>
-      <c r="N56" s="130"/>
-      <c r="O56" s="130"/>
-      <c r="P56" s="130"/>
-      <c r="Q56" s="130"/>
-      <c r="R56" s="130"/>
-      <c r="S56" s="130"/>
-      <c r="T56" s="130"/>
-      <c r="U56" s="130"/>
-      <c r="V56" s="130"/>
-    </row>
-    <row r="57" spans="1:24" ht="69.650000000000006" customHeight="1">
-      <c r="A57" s="130" t="s">
-        <v>206</v>
-      </c>
-      <c r="B57" s="130"/>
-      <c r="C57" s="130"/>
-      <c r="D57" s="130"/>
-      <c r="E57" s="130"/>
-      <c r="F57" s="130"/>
-      <c r="G57" s="130"/>
-      <c r="H57" s="130"/>
-      <c r="I57" s="130"/>
-      <c r="J57" s="130"/>
-      <c r="K57" s="130"/>
-      <c r="L57" s="130"/>
-      <c r="M57" s="130"/>
-      <c r="N57" s="130"/>
-      <c r="O57" s="130"/>
-      <c r="P57" s="130"/>
-      <c r="Q57" s="130"/>
-      <c r="R57" s="130"/>
-      <c r="S57" s="130"/>
-      <c r="T57" s="130"/>
-      <c r="U57" s="130"/>
-      <c r="V57" s="130"/>
-    </row>
-    <row r="58" spans="1:24" ht="69.650000000000006" customHeight="1">
-      <c r="A58" s="130" t="s">
-        <v>161</v>
-      </c>
-      <c r="B58" s="130"/>
-      <c r="C58" s="130"/>
-      <c r="D58" s="130"/>
-      <c r="E58" s="130"/>
-      <c r="F58" s="130"/>
-      <c r="G58" s="130"/>
-      <c r="H58" s="130"/>
-      <c r="I58" s="130"/>
-      <c r="J58" s="130"/>
-      <c r="K58" s="130"/>
-      <c r="L58" s="130"/>
-      <c r="M58" s="130"/>
-      <c r="N58" s="130"/>
-      <c r="O58" s="130"/>
-      <c r="P58" s="130"/>
-      <c r="Q58" s="130"/>
-      <c r="R58" s="130"/>
-      <c r="S58" s="130"/>
-      <c r="T58" s="130"/>
-      <c r="U58" s="130"/>
-      <c r="V58" s="130"/>
-    </row>
-    <row r="59" spans="1:24" ht="69.650000000000006" customHeight="1">
-      <c r="A59" s="130" t="s">
-        <v>207</v>
-      </c>
-      <c r="B59" s="130"/>
-      <c r="C59" s="130"/>
-      <c r="D59" s="130"/>
-      <c r="E59" s="130"/>
-      <c r="F59" s="130"/>
-      <c r="G59" s="130"/>
-      <c r="H59" s="130"/>
-      <c r="I59" s="130"/>
-      <c r="J59" s="130"/>
-      <c r="K59" s="130"/>
-      <c r="L59" s="130"/>
-      <c r="M59" s="130"/>
-      <c r="N59" s="130"/>
-      <c r="O59" s="130"/>
-      <c r="P59" s="130"/>
-      <c r="Q59" s="130"/>
-      <c r="R59" s="130"/>
-      <c r="S59" s="130"/>
-      <c r="T59" s="130"/>
-      <c r="U59" s="130"/>
-      <c r="V59" s="130"/>
-    </row>
-    <row r="60" spans="1:24" ht="69.650000000000006" customHeight="1">
-      <c r="A60" s="130" t="s">
-        <v>212</v>
-      </c>
-      <c r="B60" s="130"/>
-      <c r="C60" s="130"/>
-      <c r="D60" s="130"/>
-      <c r="E60" s="130"/>
-      <c r="F60" s="130"/>
-      <c r="G60" s="130"/>
-      <c r="H60" s="130"/>
-      <c r="I60" s="130"/>
-      <c r="J60" s="130"/>
-      <c r="K60" s="130"/>
-      <c r="L60" s="130"/>
-      <c r="M60" s="130"/>
-      <c r="N60" s="130"/>
-      <c r="O60" s="130"/>
-      <c r="P60" s="130"/>
-      <c r="Q60" s="130"/>
-      <c r="R60" s="130"/>
-      <c r="S60" s="130"/>
-      <c r="T60" s="130"/>
-      <c r="U60" s="130"/>
-      <c r="V60" s="130"/>
-    </row>
-    <row r="61" spans="1:24" ht="69.650000000000006" customHeight="1">
-      <c r="A61" s="130" t="s">
+      <c r="B60" s="131"/>
+      <c r="C60" s="131"/>
+      <c r="D60" s="131"/>
+      <c r="E60" s="131"/>
+      <c r="F60" s="131"/>
+      <c r="G60" s="131"/>
+      <c r="H60" s="131"/>
+      <c r="I60" s="131"/>
+      <c r="J60" s="131"/>
+      <c r="K60" s="131"/>
+      <c r="L60" s="131"/>
+      <c r="M60" s="131"/>
+      <c r="N60" s="131"/>
+      <c r="O60" s="131"/>
+      <c r="P60" s="131"/>
+      <c r="Q60" s="131"/>
+      <c r="R60" s="131"/>
+      <c r="S60" s="131"/>
+      <c r="T60" s="131"/>
+      <c r="U60" s="131"/>
+      <c r="V60" s="131"/>
+    </row>
+    <row r="61" spans="1:24" ht="69.599999999999994" customHeight="1">
+      <c r="A61" s="131" t="s">
+        <v>214</v>
+      </c>
+      <c r="B61" s="131"/>
+      <c r="C61" s="131"/>
+      <c r="D61" s="131"/>
+      <c r="E61" s="131"/>
+      <c r="F61" s="131"/>
+      <c r="G61" s="131"/>
+      <c r="H61" s="131"/>
+      <c r="I61" s="131"/>
+      <c r="J61" s="131"/>
+      <c r="K61" s="131"/>
+      <c r="L61" s="131"/>
+      <c r="M61" s="131"/>
+      <c r="N61" s="131"/>
+      <c r="O61" s="131"/>
+      <c r="P61" s="131"/>
+      <c r="Q61" s="131"/>
+      <c r="R61" s="131"/>
+      <c r="S61" s="131"/>
+      <c r="T61" s="131"/>
+      <c r="U61" s="131"/>
+      <c r="V61" s="131"/>
+    </row>
+    <row r="62" spans="1:24" s="36" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A62" s="121" t="s">
+        <v>151</v>
+      </c>
+      <c r="B62" s="121"/>
+      <c r="C62" s="121"/>
+      <c r="D62" s="121"/>
+      <c r="E62" s="121"/>
+      <c r="F62" s="121"/>
+      <c r="G62" s="121"/>
+      <c r="H62" s="121"/>
+      <c r="I62" s="121"/>
+      <c r="J62" s="121"/>
+      <c r="K62" s="121"/>
+      <c r="L62" s="121"/>
+      <c r="M62" s="121"/>
+      <c r="N62" s="121"/>
+      <c r="O62" s="121"/>
+      <c r="P62" s="121"/>
+      <c r="Q62" s="121"/>
+      <c r="R62" s="121"/>
+      <c r="S62" s="121"/>
+      <c r="T62" s="121"/>
+      <c r="U62" s="121"/>
+      <c r="V62" s="121"/>
+    </row>
+    <row r="63" spans="1:24">
+      <c r="A63" s="122" t="s">
+        <v>203</v>
+      </c>
+      <c r="B63" s="120"/>
+      <c r="C63" s="120"/>
+      <c r="D63" s="120"/>
+      <c r="E63" s="120"/>
+      <c r="F63" s="120"/>
+      <c r="G63" s="120"/>
+      <c r="H63" s="120"/>
+      <c r="I63" s="120"/>
+      <c r="J63" s="120"/>
+      <c r="K63" s="120"/>
+      <c r="L63" s="120"/>
+      <c r="M63" s="120"/>
+      <c r="N63" s="120"/>
+      <c r="O63" s="120"/>
+      <c r="P63" s="120"/>
+      <c r="Q63" s="120"/>
+      <c r="R63" s="120"/>
+      <c r="S63" s="120"/>
+      <c r="T63" s="120"/>
+      <c r="U63" s="120"/>
+      <c r="V63" s="120"/>
+    </row>
+    <row r="64" spans="1:24">
+      <c r="A64" s="122" t="s">
         <v>209</v>
       </c>
-      <c r="B61" s="130"/>
-      <c r="C61" s="130"/>
-      <c r="D61" s="130"/>
-      <c r="E61" s="130"/>
-      <c r="F61" s="130"/>
-      <c r="G61" s="130"/>
-      <c r="H61" s="130"/>
-      <c r="I61" s="130"/>
-      <c r="J61" s="130"/>
-      <c r="K61" s="130"/>
-      <c r="L61" s="130"/>
-      <c r="M61" s="130"/>
-      <c r="N61" s="130"/>
-      <c r="O61" s="130"/>
-      <c r="P61" s="130"/>
-      <c r="Q61" s="130"/>
-      <c r="R61" s="130"/>
-      <c r="S61" s="130"/>
-      <c r="T61" s="130"/>
-      <c r="U61" s="130"/>
-      <c r="V61" s="130"/>
-    </row>
-    <row r="62" spans="1:24" s="36" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A62" s="114" t="s">
-        <v>151</v>
-      </c>
-      <c r="B62" s="114"/>
-      <c r="C62" s="114"/>
-      <c r="D62" s="114"/>
-      <c r="E62" s="114"/>
-      <c r="F62" s="114"/>
-      <c r="G62" s="114"/>
-      <c r="H62" s="114"/>
-      <c r="I62" s="114"/>
-      <c r="J62" s="114"/>
-      <c r="K62" s="114"/>
-      <c r="L62" s="114"/>
-      <c r="M62" s="114"/>
-      <c r="N62" s="114"/>
-      <c r="O62" s="114"/>
-      <c r="P62" s="114"/>
-      <c r="Q62" s="114"/>
-      <c r="R62" s="114"/>
-      <c r="S62" s="114"/>
-      <c r="T62" s="114"/>
-      <c r="U62" s="114"/>
-      <c r="V62" s="114"/>
-    </row>
-    <row r="63" spans="1:24">
-      <c r="A63" s="116" t="s">
-        <v>210</v>
-      </c>
-      <c r="B63" s="113"/>
-      <c r="C63" s="113"/>
-      <c r="D63" s="113"/>
-      <c r="E63" s="113"/>
-      <c r="F63" s="113"/>
-      <c r="G63" s="113"/>
-      <c r="H63" s="113"/>
-      <c r="I63" s="113"/>
-      <c r="J63" s="113"/>
-      <c r="K63" s="113"/>
-      <c r="L63" s="113"/>
-      <c r="M63" s="113"/>
-      <c r="N63" s="113"/>
-      <c r="O63" s="113"/>
-      <c r="P63" s="113"/>
-      <c r="Q63" s="113"/>
-      <c r="R63" s="113"/>
-      <c r="S63" s="113"/>
-      <c r="T63" s="113"/>
-      <c r="U63" s="113"/>
-      <c r="V63" s="113"/>
-    </row>
-    <row r="64" spans="1:24">
-      <c r="A64" s="116" t="s">
-        <v>222</v>
-      </c>
-      <c r="B64" s="116"/>
-      <c r="C64" s="116"/>
-      <c r="D64" s="116"/>
-      <c r="E64" s="116"/>
-      <c r="F64" s="116"/>
-      <c r="G64" s="116"/>
-      <c r="H64" s="116"/>
-      <c r="I64" s="116"/>
-      <c r="J64" s="116"/>
-      <c r="K64" s="116"/>
-      <c r="L64" s="116"/>
-      <c r="M64" s="116"/>
-      <c r="N64" s="116"/>
-      <c r="O64" s="116"/>
-      <c r="P64" s="116"/>
-      <c r="Q64" s="116"/>
-      <c r="R64" s="116"/>
-      <c r="S64" s="116"/>
-      <c r="T64" s="116"/>
-      <c r="U64" s="116"/>
-      <c r="V64" s="116"/>
-    </row>
-    <row r="65" spans="1:22" ht="34" customHeight="1">
-      <c r="A65" s="131" t="s">
-        <v>203</v>
-      </c>
-      <c r="B65" s="131"/>
-      <c r="C65" s="131"/>
-      <c r="D65" s="131"/>
-      <c r="E65" s="131"/>
-      <c r="F65" s="131"/>
-      <c r="G65" s="131"/>
-      <c r="H65" s="131"/>
-      <c r="I65" s="131"/>
-      <c r="J65" s="131"/>
-      <c r="K65" s="131"/>
-      <c r="L65" s="131"/>
-      <c r="M65" s="131"/>
-      <c r="N65" s="131"/>
-      <c r="O65" s="131"/>
-      <c r="P65" s="131"/>
-      <c r="Q65" s="131"/>
-      <c r="R65" s="131"/>
-      <c r="S65" s="131"/>
-      <c r="T65" s="131"/>
-      <c r="U65" s="131"/>
-      <c r="V65" s="131"/>
-    </row>
-    <row r="66" spans="1:22" ht="25" customHeight="1">
-      <c r="A66" s="131" t="s">
-        <v>205</v>
-      </c>
-      <c r="B66" s="131"/>
-      <c r="C66" s="131"/>
-      <c r="D66" s="131"/>
-      <c r="E66" s="131"/>
-      <c r="F66" s="131"/>
-      <c r="G66" s="131"/>
-      <c r="H66" s="131"/>
-      <c r="I66" s="131"/>
-      <c r="J66" s="131"/>
-      <c r="K66" s="131"/>
-      <c r="L66" s="131"/>
-      <c r="M66" s="131"/>
-      <c r="N66" s="131"/>
-      <c r="O66" s="131"/>
-      <c r="P66" s="131"/>
-      <c r="Q66" s="131"/>
-      <c r="R66" s="131"/>
-      <c r="S66" s="131"/>
-      <c r="T66" s="131"/>
-      <c r="U66" s="131"/>
-      <c r="V66" s="131"/>
-    </row>
-    <row r="67" spans="1:22" ht="32" customHeight="1">
-      <c r="A67" s="131" t="s">
-        <v>208</v>
-      </c>
-      <c r="B67" s="131"/>
-      <c r="C67" s="131"/>
-      <c r="D67" s="131"/>
-      <c r="E67" s="131"/>
-      <c r="F67" s="131"/>
-      <c r="G67" s="131"/>
-      <c r="H67" s="131"/>
-      <c r="I67" s="131"/>
-      <c r="J67" s="131"/>
-      <c r="K67" s="131"/>
-      <c r="L67" s="131"/>
-      <c r="M67" s="131"/>
-      <c r="N67" s="131"/>
-      <c r="O67" s="131"/>
-      <c r="P67" s="131"/>
-      <c r="Q67" s="131"/>
-      <c r="R67" s="131"/>
-      <c r="S67" s="131"/>
-      <c r="T67" s="131"/>
-      <c r="U67" s="131"/>
-      <c r="V67" s="131"/>
+      <c r="B64" s="122"/>
+      <c r="C64" s="122"/>
+      <c r="D64" s="122"/>
+      <c r="E64" s="122"/>
+      <c r="F64" s="122"/>
+      <c r="G64" s="122"/>
+      <c r="H64" s="122"/>
+      <c r="I64" s="122"/>
+      <c r="J64" s="122"/>
+      <c r="K64" s="122"/>
+      <c r="L64" s="122"/>
+      <c r="M64" s="122"/>
+      <c r="N64" s="122"/>
+      <c r="O64" s="122"/>
+      <c r="P64" s="122"/>
+      <c r="Q64" s="122"/>
+      <c r="R64" s="122"/>
+      <c r="S64" s="122"/>
+      <c r="T64" s="122"/>
+      <c r="U64" s="122"/>
+      <c r="V64" s="122"/>
+    </row>
+    <row r="65" spans="1:22" ht="33.950000000000003" customHeight="1">
+      <c r="A65" s="128" t="s">
+        <v>215</v>
+      </c>
+      <c r="B65" s="128"/>
+      <c r="C65" s="128"/>
+      <c r="D65" s="128"/>
+      <c r="E65" s="128"/>
+      <c r="F65" s="128"/>
+      <c r="G65" s="128"/>
+      <c r="H65" s="128"/>
+      <c r="I65" s="128"/>
+      <c r="J65" s="128"/>
+      <c r="K65" s="128"/>
+      <c r="L65" s="128"/>
+      <c r="M65" s="128"/>
+      <c r="N65" s="128"/>
+      <c r="O65" s="128"/>
+      <c r="P65" s="128"/>
+      <c r="Q65" s="128"/>
+      <c r="R65" s="128"/>
+      <c r="S65" s="128"/>
+      <c r="T65" s="128"/>
+      <c r="U65" s="128"/>
+      <c r="V65" s="128"/>
+    </row>
+    <row r="66" spans="1:22" ht="24.95" customHeight="1">
+      <c r="A66" s="128" t="s">
+        <v>216</v>
+      </c>
+      <c r="B66" s="128"/>
+      <c r="C66" s="128"/>
+      <c r="D66" s="128"/>
+      <c r="E66" s="128"/>
+      <c r="F66" s="128"/>
+      <c r="G66" s="128"/>
+      <c r="H66" s="128"/>
+      <c r="I66" s="128"/>
+      <c r="J66" s="128"/>
+      <c r="K66" s="128"/>
+      <c r="L66" s="128"/>
+      <c r="M66" s="128"/>
+      <c r="N66" s="128"/>
+      <c r="O66" s="128"/>
+      <c r="P66" s="128"/>
+      <c r="Q66" s="128"/>
+      <c r="R66" s="128"/>
+      <c r="S66" s="128"/>
+      <c r="T66" s="128"/>
+      <c r="U66" s="128"/>
+      <c r="V66" s="128"/>
+    </row>
+    <row r="67" spans="1:22" ht="32.1" customHeight="1">
+      <c r="A67" s="128" t="s">
+        <v>202</v>
+      </c>
+      <c r="B67" s="128"/>
+      <c r="C67" s="128"/>
+      <c r="D67" s="128"/>
+      <c r="E67" s="128"/>
+      <c r="F67" s="128"/>
+      <c r="G67" s="128"/>
+      <c r="H67" s="128"/>
+      <c r="I67" s="128"/>
+      <c r="J67" s="128"/>
+      <c r="K67" s="128"/>
+      <c r="L67" s="128"/>
+      <c r="M67" s="128"/>
+      <c r="N67" s="128"/>
+      <c r="O67" s="128"/>
+      <c r="P67" s="128"/>
+      <c r="Q67" s="128"/>
+      <c r="R67" s="128"/>
+      <c r="S67" s="128"/>
+      <c r="T67" s="128"/>
+      <c r="U67" s="128"/>
+      <c r="V67" s="128"/>
     </row>
     <row r="68" spans="1:22">
-      <c r="A68" s="131" t="s">
-        <v>211</v>
-      </c>
-      <c r="B68" s="131"/>
-      <c r="C68" s="131"/>
-      <c r="D68" s="131"/>
-      <c r="E68" s="131"/>
-      <c r="F68" s="131"/>
-      <c r="G68" s="131"/>
-      <c r="H68" s="131"/>
-      <c r="I68" s="131"/>
-      <c r="J68" s="131"/>
-      <c r="K68" s="131"/>
-      <c r="L68" s="131"/>
-      <c r="M68" s="131"/>
-      <c r="N68" s="131"/>
-      <c r="O68" s="131"/>
-      <c r="P68" s="131"/>
-      <c r="Q68" s="131"/>
-      <c r="R68" s="131"/>
-      <c r="S68" s="131"/>
-      <c r="T68" s="131"/>
-      <c r="U68" s="131"/>
-      <c r="V68" s="131"/>
+      <c r="A68" s="128" t="s">
+        <v>217</v>
+      </c>
+      <c r="B68" s="128"/>
+      <c r="C68" s="128"/>
+      <c r="D68" s="128"/>
+      <c r="E68" s="128"/>
+      <c r="F68" s="128"/>
+      <c r="G68" s="128"/>
+      <c r="H68" s="128"/>
+      <c r="I68" s="128"/>
+      <c r="J68" s="128"/>
+      <c r="K68" s="128"/>
+      <c r="L68" s="128"/>
+      <c r="M68" s="128"/>
+      <c r="N68" s="128"/>
+      <c r="O68" s="128"/>
+      <c r="P68" s="128"/>
+      <c r="Q68" s="128"/>
+      <c r="R68" s="128"/>
+      <c r="S68" s="128"/>
+      <c r="T68" s="128"/>
+      <c r="U68" s="128"/>
+      <c r="V68" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A65:V65"/>
-    <mergeCell ref="A66:V66"/>
-    <mergeCell ref="A67:V67"/>
-    <mergeCell ref="A68:V68"/>
-    <mergeCell ref="A64:V64"/>
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="A62:V62"/>
     <mergeCell ref="A63:V63"/>
@@ -9897,9 +9890,14 @@
     <mergeCell ref="A59:V59"/>
     <mergeCell ref="A60:V60"/>
     <mergeCell ref="A61:V61"/>
+    <mergeCell ref="A65:V65"/>
+    <mergeCell ref="A66:V66"/>
+    <mergeCell ref="A67:V67"/>
+    <mergeCell ref="A68:V68"/>
+    <mergeCell ref="A64:V64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -9916,17 +9914,17 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A55" sqref="A55:V55"/>
+      <selection pane="bottomRight" activeCell="A58" sqref="A58:V58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="19.6328125" style="22" customWidth="1"/>
-    <col min="2" max="17" width="5.6328125" style="22" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="5.6328125" style="22" customWidth="1"/>
-    <col min="22" max="22" width="5.36328125" style="22" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.08984375" style="22" customWidth="1"/>
-    <col min="24" max="16384" width="8.81640625" style="22"/>
+    <col min="1" max="1" width="19.625" style="22" customWidth="1"/>
+    <col min="2" max="17" width="5.625" style="22" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="5.625" style="22" customWidth="1"/>
+    <col min="22" max="22" width="5.375" style="22" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.125" style="22" customWidth="1"/>
+    <col min="24" max="16384" width="8.875" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -10014,11 +10012,11 @@
       <c r="V2" s="24">
         <v>2020</v>
       </c>
-      <c r="W2" s="128" t="s">
+      <c r="W2" s="129" t="s">
         <v>165</v>
       </c>
-      <c r="X2" s="129"/>
-      <c r="Y2" s="129"/>
+      <c r="X2" s="130"/>
+      <c r="Y2" s="130"/>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="19" t="s">
@@ -13529,56 +13527,56 @@
       <c r="X54" s="111"/>
     </row>
     <row r="55" spans="1:24" ht="28.5" customHeight="1">
-      <c r="A55" s="116" t="s">
+      <c r="A55" s="122" t="s">
         <v>160</v>
       </c>
-      <c r="B55" s="116"/>
-      <c r="C55" s="116"/>
-      <c r="D55" s="116"/>
-      <c r="E55" s="116"/>
-      <c r="F55" s="116"/>
-      <c r="G55" s="116"/>
-      <c r="H55" s="116"/>
-      <c r="I55" s="116"/>
-      <c r="J55" s="116"/>
-      <c r="K55" s="116"/>
-      <c r="L55" s="116"/>
-      <c r="M55" s="116"/>
-      <c r="N55" s="116"/>
-      <c r="O55" s="116"/>
-      <c r="P55" s="116"/>
-      <c r="Q55" s="116"/>
-      <c r="R55" s="116"/>
-      <c r="S55" s="116"/>
-      <c r="T55" s="116"/>
-      <c r="U55" s="116"/>
-      <c r="V55" s="116"/>
+      <c r="B55" s="122"/>
+      <c r="C55" s="122"/>
+      <c r="D55" s="122"/>
+      <c r="E55" s="122"/>
+      <c r="F55" s="122"/>
+      <c r="G55" s="122"/>
+      <c r="H55" s="122"/>
+      <c r="I55" s="122"/>
+      <c r="J55" s="122"/>
+      <c r="K55" s="122"/>
+      <c r="L55" s="122"/>
+      <c r="M55" s="122"/>
+      <c r="N55" s="122"/>
+      <c r="O55" s="122"/>
+      <c r="P55" s="122"/>
+      <c r="Q55" s="122"/>
+      <c r="R55" s="122"/>
+      <c r="S55" s="122"/>
+      <c r="T55" s="122"/>
+      <c r="U55" s="122"/>
+      <c r="V55" s="122"/>
     </row>
     <row r="56" spans="1:24">
-      <c r="A56" s="119" t="s">
+      <c r="A56" s="123" t="s">
         <v>168</v>
       </c>
-      <c r="B56" s="119"/>
-      <c r="C56" s="119"/>
-      <c r="D56" s="119"/>
-      <c r="E56" s="119"/>
-      <c r="F56" s="119"/>
-      <c r="G56" s="119"/>
-      <c r="H56" s="119"/>
-      <c r="I56" s="119"/>
-      <c r="J56" s="119"/>
-      <c r="K56" s="119"/>
-      <c r="L56" s="119"/>
-      <c r="M56" s="119"/>
-      <c r="N56" s="119"/>
-      <c r="O56" s="119"/>
-      <c r="P56" s="119"/>
-      <c r="Q56" s="119"/>
-      <c r="R56" s="119"/>
-      <c r="S56" s="119"/>
-      <c r="T56" s="119"/>
-      <c r="U56" s="119"/>
-      <c r="V56" s="119"/>
+      <c r="B56" s="123"/>
+      <c r="C56" s="123"/>
+      <c r="D56" s="123"/>
+      <c r="E56" s="123"/>
+      <c r="F56" s="123"/>
+      <c r="G56" s="123"/>
+      <c r="H56" s="123"/>
+      <c r="I56" s="123"/>
+      <c r="J56" s="123"/>
+      <c r="K56" s="123"/>
+      <c r="L56" s="123"/>
+      <c r="M56" s="123"/>
+      <c r="N56" s="123"/>
+      <c r="O56" s="123"/>
+      <c r="P56" s="123"/>
+      <c r="Q56" s="123"/>
+      <c r="R56" s="123"/>
+      <c r="S56" s="123"/>
+      <c r="T56" s="123"/>
+      <c r="U56" s="123"/>
+      <c r="V56" s="123"/>
     </row>
     <row r="57" spans="1:24">
       <c r="A57" s="132" t="s">
@@ -13607,30 +13605,30 @@
       <c r="V57" s="132"/>
     </row>
     <row r="58" spans="1:24" s="33" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A58" s="114" t="s">
+      <c r="A58" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="B58" s="114"/>
-      <c r="C58" s="114"/>
-      <c r="D58" s="114"/>
-      <c r="E58" s="114"/>
-      <c r="F58" s="114"/>
-      <c r="G58" s="114"/>
-      <c r="H58" s="114"/>
-      <c r="I58" s="114"/>
-      <c r="J58" s="114"/>
-      <c r="K58" s="114"/>
-      <c r="L58" s="114"/>
-      <c r="M58" s="114"/>
-      <c r="N58" s="114"/>
-      <c r="O58" s="114"/>
-      <c r="P58" s="114"/>
-      <c r="Q58" s="114"/>
-      <c r="R58" s="114"/>
-      <c r="S58" s="114"/>
-      <c r="T58" s="114"/>
-      <c r="U58" s="114"/>
-      <c r="V58" s="114"/>
+      <c r="B58" s="121"/>
+      <c r="C58" s="121"/>
+      <c r="D58" s="121"/>
+      <c r="E58" s="121"/>
+      <c r="F58" s="121"/>
+      <c r="G58" s="121"/>
+      <c r="H58" s="121"/>
+      <c r="I58" s="121"/>
+      <c r="J58" s="121"/>
+      <c r="K58" s="121"/>
+      <c r="L58" s="121"/>
+      <c r="M58" s="121"/>
+      <c r="N58" s="121"/>
+      <c r="O58" s="121"/>
+      <c r="P58" s="121"/>
+      <c r="Q58" s="121"/>
+      <c r="R58" s="121"/>
+      <c r="S58" s="121"/>
+      <c r="T58" s="121"/>
+      <c r="U58" s="121"/>
+      <c r="V58" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -13655,20 +13653,20 @@
   <dimension ref="A1:Z60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A55" sqref="A55:V55"/>
+      <selection pane="bottomRight" activeCell="C69" sqref="C68:C69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="20.6328125" style="22" customWidth="1"/>
-    <col min="2" max="17" width="5.6328125" style="26" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="5.6328125" style="26" customWidth="1"/>
-    <col min="22" max="22" width="5.36328125" style="22" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.81640625" style="22" customWidth="1"/>
-    <col min="24" max="16384" width="8.81640625" style="22"/>
+    <col min="1" max="1" width="20.625" style="22" customWidth="1"/>
+    <col min="2" max="17" width="5.625" style="26" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="5.625" style="26" customWidth="1"/>
+    <col min="22" max="22" width="5.375" style="22" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.875" style="22" customWidth="1"/>
+    <col min="24" max="16384" width="8.875" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -17273,38 +17271,38 @@
       <c r="W54" s="111"/>
       <c r="X54" s="111"/>
     </row>
-    <row r="55" spans="1:24" ht="49.25" customHeight="1">
-      <c r="A55" s="119" t="s">
+    <row r="55" spans="1:24" ht="49.35" customHeight="1">
+      <c r="A55" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="B55" s="119"/>
-      <c r="C55" s="119"/>
-      <c r="D55" s="119"/>
-      <c r="E55" s="119"/>
-      <c r="F55" s="119"/>
-      <c r="G55" s="119"/>
-      <c r="H55" s="119"/>
-      <c r="I55" s="119"/>
-      <c r="J55" s="119"/>
-      <c r="K55" s="119"/>
-      <c r="L55" s="119"/>
-      <c r="M55" s="119"/>
-      <c r="N55" s="119"/>
-      <c r="O55" s="119"/>
-      <c r="P55" s="119"/>
-      <c r="Q55" s="119"/>
-      <c r="R55" s="119"/>
-      <c r="S55" s="119"/>
-      <c r="T55" s="119"/>
-      <c r="U55" s="119"/>
-      <c r="V55" s="119"/>
-    </row>
-    <row r="56" spans="1:24" ht="49.25" customHeight="1">
+      <c r="B55" s="123"/>
+      <c r="C55" s="123"/>
+      <c r="D55" s="123"/>
+      <c r="E55" s="123"/>
+      <c r="F55" s="123"/>
+      <c r="G55" s="123"/>
+      <c r="H55" s="123"/>
+      <c r="I55" s="123"/>
+      <c r="J55" s="123"/>
+      <c r="K55" s="123"/>
+      <c r="L55" s="123"/>
+      <c r="M55" s="123"/>
+      <c r="N55" s="123"/>
+      <c r="O55" s="123"/>
+      <c r="P55" s="123"/>
+      <c r="Q55" s="123"/>
+      <c r="R55" s="123"/>
+      <c r="S55" s="123"/>
+      <c r="T55" s="123"/>
+      <c r="U55" s="123"/>
+      <c r="V55" s="123"/>
+    </row>
+    <row r="56" spans="1:24" ht="49.35" customHeight="1">
       <c r="A56" s="22" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="57" spans="1:24" s="36" customFormat="1" ht="49.25" customHeight="1">
+    <row r="57" spans="1:24" s="36" customFormat="1" ht="49.35" customHeight="1">
       <c r="A57" s="135" t="s">
         <v>153</v>
       </c>
@@ -17331,82 +17329,82 @@
       <c r="V57" s="135"/>
     </row>
     <row r="58" spans="1:24" s="33" customFormat="1" ht="33" customHeight="1">
-      <c r="A58" s="116" t="s">
-        <v>219</v>
-      </c>
-      <c r="B58" s="116"/>
-      <c r="C58" s="116"/>
-      <c r="D58" s="116"/>
-      <c r="E58" s="116"/>
-      <c r="F58" s="116"/>
-      <c r="G58" s="116"/>
-      <c r="H58" s="116"/>
-      <c r="I58" s="116"/>
-      <c r="J58" s="116"/>
-      <c r="K58" s="116"/>
-      <c r="L58" s="116"/>
-      <c r="M58" s="116"/>
-      <c r="N58" s="116"/>
-      <c r="O58" s="116"/>
-      <c r="P58" s="116"/>
-      <c r="Q58" s="116"/>
-      <c r="R58" s="116"/>
-      <c r="S58" s="116"/>
-      <c r="T58" s="116"/>
-      <c r="U58" s="116"/>
-      <c r="V58" s="116"/>
+      <c r="A58" s="122" t="s">
+        <v>218</v>
+      </c>
+      <c r="B58" s="122"/>
+      <c r="C58" s="122"/>
+      <c r="D58" s="122"/>
+      <c r="E58" s="122"/>
+      <c r="F58" s="122"/>
+      <c r="G58" s="122"/>
+      <c r="H58" s="122"/>
+      <c r="I58" s="122"/>
+      <c r="J58" s="122"/>
+      <c r="K58" s="122"/>
+      <c r="L58" s="122"/>
+      <c r="M58" s="122"/>
+      <c r="N58" s="122"/>
+      <c r="O58" s="122"/>
+      <c r="P58" s="122"/>
+      <c r="Q58" s="122"/>
+      <c r="R58" s="122"/>
+      <c r="S58" s="122"/>
+      <c r="T58" s="122"/>
+      <c r="U58" s="122"/>
+      <c r="V58" s="122"/>
     </row>
     <row r="59" spans="1:24">
-      <c r="A59" s="116" t="s">
-        <v>220</v>
-      </c>
-      <c r="B59" s="116"/>
-      <c r="C59" s="116"/>
-      <c r="D59" s="116"/>
-      <c r="E59" s="116"/>
-      <c r="F59" s="116"/>
-      <c r="G59" s="116"/>
-      <c r="H59" s="116"/>
-      <c r="I59" s="116"/>
-      <c r="J59" s="116"/>
-      <c r="K59" s="116"/>
-      <c r="L59" s="116"/>
-      <c r="M59" s="116"/>
-      <c r="N59" s="116"/>
-      <c r="O59" s="116"/>
-      <c r="P59" s="116"/>
-      <c r="Q59" s="116"/>
-      <c r="R59" s="116"/>
-      <c r="S59" s="116"/>
-      <c r="T59" s="116"/>
-      <c r="U59" s="116"/>
-      <c r="V59" s="116"/>
+      <c r="A59" s="122" t="s">
+        <v>207</v>
+      </c>
+      <c r="B59" s="122"/>
+      <c r="C59" s="122"/>
+      <c r="D59" s="122"/>
+      <c r="E59" s="122"/>
+      <c r="F59" s="122"/>
+      <c r="G59" s="122"/>
+      <c r="H59" s="122"/>
+      <c r="I59" s="122"/>
+      <c r="J59" s="122"/>
+      <c r="K59" s="122"/>
+      <c r="L59" s="122"/>
+      <c r="M59" s="122"/>
+      <c r="N59" s="122"/>
+      <c r="O59" s="122"/>
+      <c r="P59" s="122"/>
+      <c r="Q59" s="122"/>
+      <c r="R59" s="122"/>
+      <c r="S59" s="122"/>
+      <c r="T59" s="122"/>
+      <c r="U59" s="122"/>
+      <c r="V59" s="122"/>
     </row>
     <row r="60" spans="1:24">
-      <c r="A60" s="116" t="s">
-        <v>221</v>
-      </c>
-      <c r="B60" s="116"/>
-      <c r="C60" s="116"/>
-      <c r="D60" s="116"/>
-      <c r="E60" s="116"/>
-      <c r="F60" s="116"/>
-      <c r="G60" s="116"/>
-      <c r="H60" s="116"/>
-      <c r="I60" s="116"/>
-      <c r="J60" s="116"/>
-      <c r="K60" s="116"/>
-      <c r="L60" s="116"/>
-      <c r="M60" s="116"/>
-      <c r="N60" s="116"/>
-      <c r="O60" s="116"/>
-      <c r="P60" s="116"/>
-      <c r="Q60" s="116"/>
-      <c r="R60" s="116"/>
-      <c r="S60" s="116"/>
-      <c r="T60" s="116"/>
-      <c r="U60" s="116"/>
-      <c r="V60" s="116"/>
+      <c r="A60" s="122" t="s">
+        <v>208</v>
+      </c>
+      <c r="B60" s="122"/>
+      <c r="C60" s="122"/>
+      <c r="D60" s="122"/>
+      <c r="E60" s="122"/>
+      <c r="F60" s="122"/>
+      <c r="G60" s="122"/>
+      <c r="H60" s="122"/>
+      <c r="I60" s="122"/>
+      <c r="J60" s="122"/>
+      <c r="K60" s="122"/>
+      <c r="L60" s="122"/>
+      <c r="M60" s="122"/>
+      <c r="N60" s="122"/>
+      <c r="O60" s="122"/>
+      <c r="P60" s="122"/>
+      <c r="Q60" s="122"/>
+      <c r="R60" s="122"/>
+      <c r="S60" s="122"/>
+      <c r="T60" s="122"/>
+      <c r="U60" s="122"/>
+      <c r="V60" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -17435,17 +17433,17 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A55" sqref="A55"/>
+      <selection pane="bottomRight" activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" style="22" customWidth="1"/>
-    <col min="2" max="17" width="5.6328125" style="22" bestFit="1" customWidth="1"/>
-    <col min="18" max="22" width="5.6328125" style="22" customWidth="1"/>
-    <col min="23" max="23" width="13.36328125" style="22" customWidth="1"/>
-    <col min="24" max="24" width="5.36328125" style="22" customWidth="1"/>
-    <col min="25" max="16384" width="8.81640625" style="22"/>
+    <col min="1" max="1" width="16.125" style="22" customWidth="1"/>
+    <col min="2" max="17" width="5.625" style="22" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="5.625" style="22" customWidth="1"/>
+    <col min="23" max="23" width="13.375" style="22" customWidth="1"/>
+    <col min="24" max="24" width="5.375" style="22" customWidth="1"/>
+    <col min="25" max="16384" width="8.875" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -17535,7 +17533,7 @@
         <v>2020</v>
       </c>
       <c r="W2" s="91" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="X2" s="133" t="s">
         <v>165</v>
@@ -21205,7 +21203,7 @@
     </row>
     <row r="55" spans="1:23">
       <c r="A55" s="22" t="s">
-        <v>171</v>
+        <v>219</v>
       </c>
     </row>
     <row r="56" spans="1:23" s="36" customFormat="1">
@@ -21253,81 +21251,81 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H60" sqref="H60"/>
+      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="20.6328125" style="36" customWidth="1"/>
-    <col min="2" max="2" width="7.6328125" style="34" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.625" style="36" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="34" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="34" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.453125" style="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.6328125" style="34" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.81640625" style="34" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.6328125" style="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.81640625" style="34" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.6328125" style="34" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.81640625" style="34" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.6328125" style="34" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.81640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.625" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.875" style="34" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.625" style="34" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.875" style="34" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.625" style="34" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.875" style="34" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.625" style="34" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.875" style="34" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" style="34" customWidth="1"/>
-    <col min="15" max="15" width="6.81640625" style="34" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.6328125" style="34" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.81640625" style="34" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.6328125" style="34" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.81640625" style="34" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.6328125" style="34" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.81640625" style="34" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.6328125" style="34" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.81640625" style="34" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.6328125" style="34" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.453125" style="34" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.6328125" style="34" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.81640625" style="34" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="3.6328125" style="34" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.81640625" style="34" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.6328125" style="34" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6.81640625" style="34" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="3.6328125" style="34" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="5.81640625" style="34" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.6328125" style="34" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="6.81640625" style="34" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="3.6328125" style="34" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="5.81640625" style="34" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="7.6328125" style="34" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="6.81640625" style="34" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="3.6328125" style="34" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="5.81640625" style="34" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="7.6328125" style="34" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="6.81640625" style="34" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="3.6328125" style="34" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="5.81640625" style="34" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="7.6328125" style="34" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="6.81640625" style="34" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="3.6328125" style="34" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="5.81640625" style="34" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="7.6328125" style="34" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="6.81640625" style="34" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="3.6328125" style="34" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="5.81640625" style="34" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="7.6328125" style="34" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="8.36328125" style="34" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="10.36328125" style="34" customWidth="1"/>
-    <col min="57" max="57" width="8.36328125" style="34" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="9.453125" style="34" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="6.81640625" style="34" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="9.36328125" style="34" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.875" style="34" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.625" style="34" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.875" style="34" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.625" style="34" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.875" style="34" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.625" style="34" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.875" style="34" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.625" style="34" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.875" style="34" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.625" style="34" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5" style="34" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.625" style="34" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.875" style="34" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.625" style="34" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.875" style="34" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.625" style="34" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.875" style="34" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="3.625" style="34" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.875" style="34" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.625" style="34" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6.875" style="34" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="3.625" style="34" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="5.875" style="34" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7.625" style="34" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="6.875" style="34" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="3.625" style="34" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="5.875" style="34" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="7.625" style="34" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="6.875" style="34" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="3.625" style="34" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="5.875" style="34" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="7.625" style="34" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="6.875" style="34" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="3.625" style="34" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="5.875" style="34" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="7.625" style="34" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="6.875" style="34" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="3.625" style="34" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="5.875" style="34" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="7.625" style="34" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="8.375" style="34" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="10.375" style="34" customWidth="1"/>
+    <col min="57" max="57" width="8.375" style="34" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="9.5" style="34" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="6.875" style="34" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="9.375" style="34" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="9" style="34" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="7.6328125" style="34" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="6.81640625" style="34" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="7.08984375" style="34" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="14.08984375" style="34" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="7.6328125" style="34" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="6.81640625" style="34" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="5.36328125" style="34" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="8.36328125" style="34" bestFit="1" customWidth="1"/>
-    <col min="70" max="16384" width="8.81640625" style="34"/>
+    <col min="62" max="62" width="7.625" style="34" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="6.875" style="34" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="7.125" style="34" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="14.125" style="34" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="7.625" style="34" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="6.875" style="34" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="5.375" style="34" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="8.375" style="34" bestFit="1" customWidth="1"/>
+    <col min="70" max="16384" width="8.875" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:69">
@@ -21443,7 +21441,7 @@
     <row r="3" spans="1:69" ht="60.75" customHeight="1">
       <c r="A3" s="137"/>
       <c r="B3" s="92" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C3" s="47" t="s">
         <v>119</v>
@@ -21455,7 +21453,7 @@
         <v>53</v>
       </c>
       <c r="F3" s="92" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G3" s="47" t="s">
         <v>119</v>
@@ -21467,7 +21465,7 @@
         <v>53</v>
       </c>
       <c r="J3" s="92" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K3" s="47" t="s">
         <v>119</v>
@@ -21479,7 +21477,7 @@
         <v>53</v>
       </c>
       <c r="N3" s="92" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O3" s="47" t="s">
         <v>119</v>
@@ -21491,7 +21489,7 @@
         <v>53</v>
       </c>
       <c r="R3" s="92" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S3" s="47" t="s">
         <v>119</v>
@@ -21503,7 +21501,7 @@
         <v>53</v>
       </c>
       <c r="V3" s="92" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W3" s="47" t="s">
         <v>119</v>
@@ -21515,7 +21513,7 @@
         <v>53</v>
       </c>
       <c r="Z3" s="92" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AA3" s="47" t="s">
         <v>119</v>
@@ -21527,7 +21525,7 @@
         <v>53</v>
       </c>
       <c r="AD3" s="92" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AE3" s="47" t="s">
         <v>119</v>
@@ -21539,7 +21537,7 @@
         <v>53</v>
       </c>
       <c r="AH3" s="92" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AI3" s="47" t="s">
         <v>119</v>
@@ -21551,7 +21549,7 @@
         <v>53</v>
       </c>
       <c r="AL3" s="92" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AM3" s="47" t="s">
         <v>119</v>
@@ -21563,7 +21561,7 @@
         <v>53</v>
       </c>
       <c r="AP3" s="92" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AQ3" s="47" t="s">
         <v>119</v>
@@ -21575,7 +21573,7 @@
         <v>53</v>
       </c>
       <c r="AT3" s="92" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AU3" s="47" t="s">
         <v>119</v>
@@ -21587,7 +21585,7 @@
         <v>53</v>
       </c>
       <c r="AX3" s="92" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AY3" s="47" t="s">
         <v>119</v>
@@ -21599,7 +21597,7 @@
         <v>53</v>
       </c>
       <c r="BB3" s="92" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="BC3" s="47" t="s">
         <v>119</v>
@@ -21611,7 +21609,7 @@
         <v>53</v>
       </c>
       <c r="BF3" s="92" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="BG3" s="47" t="s">
         <v>119</v>
@@ -21623,7 +21621,7 @@
         <v>53</v>
       </c>
       <c r="BJ3" s="92" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="BK3" s="47" t="s">
         <v>119</v>
@@ -21635,7 +21633,7 @@
         <v>53</v>
       </c>
       <c r="BN3" s="92" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="BO3" s="47" t="s">
         <v>119</v>
@@ -21939,7 +21937,7 @@
       <c r="BP7" s="51"/>
       <c r="BQ7" s="52"/>
     </row>
-    <row r="8" spans="1:69" ht="37.5">
+    <row r="8" spans="1:69" ht="25.5">
       <c r="A8" s="49" t="s">
         <v>4</v>
       </c>
@@ -22020,7 +22018,7 @@
       <c r="BP8" s="51"/>
       <c r="BQ8" s="52"/>
     </row>
-    <row r="9" spans="1:69" ht="37.5">
+    <row r="9" spans="1:69" ht="38.25">
       <c r="A9" s="49" t="s">
         <v>5</v>
       </c>
@@ -22101,7 +22099,7 @@
       <c r="BP9" s="51"/>
       <c r="BQ9" s="52"/>
     </row>
-    <row r="10" spans="1:69" ht="25">
+    <row r="10" spans="1:69" ht="25.5">
       <c r="A10" s="49" t="s">
         <v>6</v>
       </c>
@@ -22182,7 +22180,7 @@
       <c r="BP10" s="51"/>
       <c r="BQ10" s="52"/>
     </row>
-    <row r="11" spans="1:69" ht="25">
+    <row r="11" spans="1:69" ht="25.5">
       <c r="A11" s="49" t="s">
         <v>7</v>
       </c>
@@ -22263,7 +22261,7 @@
       <c r="BP11" s="51"/>
       <c r="BQ11" s="52"/>
     </row>
-    <row r="12" spans="1:69" ht="25">
+    <row r="12" spans="1:69" ht="25.5">
       <c r="A12" s="49" t="s">
         <v>50</v>
       </c>
@@ -22490,7 +22488,7 @@
       <c r="BP14" s="51"/>
       <c r="BQ14" s="52"/>
     </row>
-    <row r="15" spans="1:69" ht="25">
+    <row r="15" spans="1:69" ht="25.5">
       <c r="A15" s="49" t="s">
         <v>10</v>
       </c>
@@ -22644,7 +22642,7 @@
       <c r="BP16" s="51"/>
       <c r="BQ16" s="52"/>
     </row>
-    <row r="17" spans="1:69" ht="25">
+    <row r="17" spans="1:69" ht="25.5">
       <c r="A17" s="49" t="s">
         <v>12</v>
       </c>
@@ -23163,7 +23161,7 @@
       <c r="BP23" s="51"/>
       <c r="BQ23" s="52"/>
     </row>
-    <row r="24" spans="1:69" ht="25">
+    <row r="24" spans="1:69" ht="25.5">
       <c r="A24" s="49" t="s">
         <v>19</v>
       </c>
@@ -23755,7 +23753,7 @@
       <c r="BP31" s="51"/>
       <c r="BQ31" s="52"/>
     </row>
-    <row r="32" spans="1:69" s="69" customFormat="1" ht="25">
+    <row r="32" spans="1:69" s="69" customFormat="1" ht="25.5">
       <c r="A32" s="64" t="s">
         <v>26</v>
       </c>
@@ -23982,7 +23980,7 @@
       <c r="BP34" s="51"/>
       <c r="BQ34" s="52"/>
     </row>
-    <row r="35" spans="1:69" ht="50">
+    <row r="35" spans="1:69" ht="38.25">
       <c r="A35" s="49" t="s">
         <v>29</v>
       </c>
@@ -24436,7 +24434,7 @@
       <c r="BP40" s="51"/>
       <c r="BQ40" s="52"/>
     </row>
-    <row r="41" spans="1:69" ht="37.5">
+    <row r="41" spans="1:69" ht="38.25">
       <c r="A41" s="49" t="s">
         <v>35</v>
       </c>
@@ -24961,7 +24959,7 @@
       <c r="BP47" s="51"/>
       <c r="BQ47" s="52"/>
     </row>
-    <row r="48" spans="1:69" ht="37.5">
+    <row r="48" spans="1:69" ht="38.25">
       <c r="A48" s="49" t="s">
         <v>41</v>
       </c>
@@ -25042,7 +25040,7 @@
       <c r="BP48" s="51"/>
       <c r="BQ48" s="52"/>
     </row>
-    <row r="49" spans="1:69" ht="25">
+    <row r="49" spans="1:69" ht="25.5">
       <c r="A49" s="49" t="s">
         <v>42</v>
       </c>
@@ -25196,7 +25194,7 @@
       <c r="BP50" s="51"/>
       <c r="BQ50" s="52"/>
     </row>
-    <row r="51" spans="1:69" s="36" customFormat="1" ht="50">
+    <row r="51" spans="1:69" s="36" customFormat="1" ht="51">
       <c r="A51" s="49" t="s">
         <v>44</v>
       </c>
@@ -25210,7 +25208,7 @@
         <v>118</v>
       </c>
       <c r="E51" s="93" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F51" s="50"/>
       <c r="G51" s="51"/>
@@ -25523,12 +25521,12 @@
     </row>
     <row r="56" spans="1:69">
       <c r="A56" s="22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="57" spans="1:69">
+      <c r="A57" s="123" t="s">
         <v>175</v>
-      </c>
-    </row>
-    <row r="57" spans="1:69">
-      <c r="A57" s="119" t="s">
-        <v>176</v>
       </c>
       <c r="B57" s="138"/>
       <c r="C57" s="138"/>
@@ -25622,18 +25620,13 @@
     </row>
     <row r="59" spans="1:69">
       <c r="A59" s="22" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B59" s="112"/>
       <c r="C59" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="BN2:BQ2"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="A2:A3"/>
     <mergeCell ref="A57:BQ57"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="J2:M2"/>
@@ -25648,6 +25641,11 @@
     <mergeCell ref="BJ2:BM2"/>
     <mergeCell ref="BF2:BI2"/>
     <mergeCell ref="BB2:BE2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="BN2:BQ2"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="A2:A3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -25664,20 +25662,20 @@
   <dimension ref="A1:BU68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A65" sqref="A65:V65"/>
+      <selection pane="bottomRight" activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="17" width="5.6328125" style="36" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="5.6328125" style="36" customWidth="1"/>
-    <col min="22" max="22" width="5.36328125" style="36" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.453125" style="36" customWidth="1"/>
-    <col min="24" max="16384" width="8.81640625" style="36"/>
+    <col min="1" max="1" width="17.875" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="17" width="5.625" style="36" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="5.625" style="36" customWidth="1"/>
+    <col min="22" max="22" width="5.375" style="36" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.5" style="36" customWidth="1"/>
+    <col min="24" max="16384" width="8.875" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -29283,8 +29281,8 @@
       <c r="Y54" s="111"/>
     </row>
     <row r="55" spans="1:73" ht="27.75" customHeight="1">
-      <c r="A55" s="116" t="s">
-        <v>175</v>
+      <c r="A55" s="122" t="s">
+        <v>174</v>
       </c>
       <c r="B55" s="135"/>
       <c r="C55" s="135"/>
@@ -29309,34 +29307,34 @@
       <c r="V55" s="135"/>
     </row>
     <row r="56" spans="1:73" ht="27.75" customHeight="1">
-      <c r="A56" s="116" t="s">
-        <v>218</v>
-      </c>
-      <c r="B56" s="116"/>
-      <c r="C56" s="116"/>
-      <c r="D56" s="116"/>
-      <c r="E56" s="116"/>
-      <c r="F56" s="116"/>
-      <c r="G56" s="116"/>
-      <c r="H56" s="116"/>
-      <c r="I56" s="116"/>
-      <c r="J56" s="116"/>
-      <c r="K56" s="116"/>
-      <c r="L56" s="116"/>
-      <c r="M56" s="116"/>
-      <c r="N56" s="116"/>
-      <c r="O56" s="116"/>
-      <c r="P56" s="116"/>
-      <c r="Q56" s="116"/>
-      <c r="R56" s="116"/>
-      <c r="S56" s="116"/>
-      <c r="T56" s="116"/>
-      <c r="U56" s="116"/>
-      <c r="V56" s="116"/>
+      <c r="A56" s="122" t="s">
+        <v>206</v>
+      </c>
+      <c r="B56" s="122"/>
+      <c r="C56" s="122"/>
+      <c r="D56" s="122"/>
+      <c r="E56" s="122"/>
+      <c r="F56" s="122"/>
+      <c r="G56" s="122"/>
+      <c r="H56" s="122"/>
+      <c r="I56" s="122"/>
+      <c r="J56" s="122"/>
+      <c r="K56" s="122"/>
+      <c r="L56" s="122"/>
+      <c r="M56" s="122"/>
+      <c r="N56" s="122"/>
+      <c r="O56" s="122"/>
+      <c r="P56" s="122"/>
+      <c r="Q56" s="122"/>
+      <c r="R56" s="122"/>
+      <c r="S56" s="122"/>
+      <c r="T56" s="122"/>
+      <c r="U56" s="122"/>
+      <c r="V56" s="122"/>
     </row>
     <row r="57" spans="1:73" ht="27.75" customHeight="1">
-      <c r="A57" s="119" t="s">
-        <v>176</v>
+      <c r="A57" s="123" t="s">
+        <v>175</v>
       </c>
       <c r="B57" s="138"/>
       <c r="C57" s="138"/>
@@ -29412,30 +29410,30 @@
       <c r="BU57" s="83"/>
     </row>
     <row r="58" spans="1:73" ht="27.75" customHeight="1">
-      <c r="A58" s="119" t="s">
-        <v>217</v>
-      </c>
-      <c r="B58" s="119"/>
-      <c r="C58" s="119"/>
-      <c r="D58" s="119"/>
-      <c r="E58" s="119"/>
-      <c r="F58" s="119"/>
-      <c r="G58" s="119"/>
-      <c r="H58" s="119"/>
-      <c r="I58" s="119"/>
-      <c r="J58" s="119"/>
-      <c r="K58" s="119"/>
-      <c r="L58" s="119"/>
-      <c r="M58" s="119"/>
-      <c r="N58" s="119"/>
-      <c r="O58" s="119"/>
-      <c r="P58" s="119"/>
-      <c r="Q58" s="119"/>
-      <c r="R58" s="119"/>
-      <c r="S58" s="119"/>
-      <c r="T58" s="119"/>
-      <c r="U58" s="119"/>
-      <c r="V58" s="119"/>
+      <c r="A58" s="123" t="s">
+        <v>221</v>
+      </c>
+      <c r="B58" s="123"/>
+      <c r="C58" s="123"/>
+      <c r="D58" s="123"/>
+      <c r="E58" s="123"/>
+      <c r="F58" s="123"/>
+      <c r="G58" s="123"/>
+      <c r="H58" s="123"/>
+      <c r="I58" s="123"/>
+      <c r="J58" s="123"/>
+      <c r="K58" s="123"/>
+      <c r="L58" s="123"/>
+      <c r="M58" s="123"/>
+      <c r="N58" s="123"/>
+      <c r="O58" s="123"/>
+      <c r="P58" s="123"/>
+      <c r="Q58" s="123"/>
+      <c r="R58" s="123"/>
+      <c r="S58" s="123"/>
+      <c r="T58" s="123"/>
+      <c r="U58" s="123"/>
+      <c r="V58" s="123"/>
       <c r="W58" s="83"/>
       <c r="X58" s="83"/>
       <c r="Y58" s="83"/>
@@ -29489,30 +29487,30 @@
       <c r="BU58" s="83"/>
     </row>
     <row r="59" spans="1:73" ht="27.75" customHeight="1">
-      <c r="A59" s="119" t="s">
-        <v>213</v>
-      </c>
-      <c r="B59" s="119"/>
-      <c r="C59" s="119"/>
-      <c r="D59" s="119"/>
-      <c r="E59" s="119"/>
-      <c r="F59" s="119"/>
-      <c r="G59" s="119"/>
-      <c r="H59" s="119"/>
-      <c r="I59" s="119"/>
-      <c r="J59" s="119"/>
-      <c r="K59" s="119"/>
-      <c r="L59" s="119"/>
-      <c r="M59" s="119"/>
-      <c r="N59" s="119"/>
-      <c r="O59" s="119"/>
-      <c r="P59" s="119"/>
-      <c r="Q59" s="119"/>
-      <c r="R59" s="119"/>
-      <c r="S59" s="119"/>
-      <c r="T59" s="119"/>
-      <c r="U59" s="119"/>
-      <c r="V59" s="119"/>
+      <c r="A59" s="123" t="s">
+        <v>222</v>
+      </c>
+      <c r="B59" s="123"/>
+      <c r="C59" s="123"/>
+      <c r="D59" s="123"/>
+      <c r="E59" s="123"/>
+      <c r="F59" s="123"/>
+      <c r="G59" s="123"/>
+      <c r="H59" s="123"/>
+      <c r="I59" s="123"/>
+      <c r="J59" s="123"/>
+      <c r="K59" s="123"/>
+      <c r="L59" s="123"/>
+      <c r="M59" s="123"/>
+      <c r="N59" s="123"/>
+      <c r="O59" s="123"/>
+      <c r="P59" s="123"/>
+      <c r="Q59" s="123"/>
+      <c r="R59" s="123"/>
+      <c r="S59" s="123"/>
+      <c r="T59" s="123"/>
+      <c r="U59" s="123"/>
+      <c r="V59" s="123"/>
       <c r="W59" s="83"/>
       <c r="X59" s="83"/>
       <c r="Y59" s="83"/>
@@ -29592,8 +29590,8 @@
       <c r="V60" s="135"/>
     </row>
     <row r="61" spans="1:73" ht="28.5" customHeight="1">
-      <c r="A61" s="116" t="s">
-        <v>218</v>
+      <c r="A61" s="122" t="s">
+        <v>206</v>
       </c>
       <c r="B61" s="135"/>
       <c r="C61" s="135"/>
@@ -29618,8 +29616,8 @@
       <c r="V61" s="135"/>
     </row>
     <row r="62" spans="1:73">
-      <c r="A62" s="131" t="s">
-        <v>214</v>
+      <c r="A62" s="128" t="s">
+        <v>223</v>
       </c>
       <c r="B62" s="139"/>
       <c r="C62" s="139"/>
@@ -29644,8 +29642,8 @@
       <c r="V62" s="139"/>
     </row>
     <row r="63" spans="1:73">
-      <c r="A63" s="131" t="s">
-        <v>215</v>
+      <c r="A63" s="128" t="s">
+        <v>205</v>
       </c>
       <c r="B63" s="139"/>
       <c r="C63" s="139"/>
@@ -29670,8 +29668,8 @@
       <c r="V63" s="139"/>
     </row>
     <row r="64" spans="1:73">
-      <c r="A64" s="131" t="s">
-        <v>216</v>
+      <c r="A64" s="128" t="s">
+        <v>224</v>
       </c>
       <c r="B64" s="139"/>
       <c r="C64" s="139"/>
@@ -29793,12 +29791,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A68:V68"/>
-    <mergeCell ref="A63:V63"/>
-    <mergeCell ref="A64:V64"/>
-    <mergeCell ref="A65:V65"/>
-    <mergeCell ref="A66:V66"/>
-    <mergeCell ref="A67:V67"/>
     <mergeCell ref="A57:V57"/>
     <mergeCell ref="A55:V55"/>
     <mergeCell ref="A60:V60"/>
@@ -29808,6 +29800,12 @@
     <mergeCell ref="A58:V58"/>
     <mergeCell ref="A61:V61"/>
     <mergeCell ref="A56:V56"/>
+    <mergeCell ref="A68:V68"/>
+    <mergeCell ref="A63:V63"/>
+    <mergeCell ref="A64:V64"/>
+    <mergeCell ref="A65:V65"/>
+    <mergeCell ref="A66:V66"/>
+    <mergeCell ref="A67:V67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
